--- a/sds2011.xlsx
+++ b/sds2011.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="16140" windowHeight="6540" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15375" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="sdsfact" sheetId="14" r:id="rId1"/>
     <sheet name="sdsmatrix" sheetId="11" r:id="rId2"/>
+    <sheet name="prevalence" sheetId="18" r:id="rId3"/>
+    <sheet name="healthboards" sheetId="16" r:id="rId4"/>
+    <sheet name="issue log" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="134">
   <si>
     <t>metric</t>
   </si>
   <si>
-    <t>healthboard</t>
-  </si>
-  <si>
     <t>Ayrshire and Arran</t>
   </si>
   <si>
@@ -266,9 +266,6 @@
     <t>measure_v</t>
   </si>
   <si>
-    <t>diabetes type</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -279,16 +276,163 @@
   </si>
   <si>
     <t>% of diabetes pop with HbA1c &gt; 75 mmol/mol</t>
+  </si>
+  <si>
+    <t>S08000001</t>
+  </si>
+  <si>
+    <t>S08000002</t>
+  </si>
+  <si>
+    <t>S08000003</t>
+  </si>
+  <si>
+    <t>S08000004</t>
+  </si>
+  <si>
+    <t>S08000005</t>
+  </si>
+  <si>
+    <t>S08000006</t>
+  </si>
+  <si>
+    <t>S08000007</t>
+  </si>
+  <si>
+    <t>S08000008</t>
+  </si>
+  <si>
+    <t>S08000009</t>
+  </si>
+  <si>
+    <t>S08000010</t>
+  </si>
+  <si>
+    <t>S08000011</t>
+  </si>
+  <si>
+    <t>S08000012</t>
+  </si>
+  <si>
+    <t>S08000013</t>
+  </si>
+  <si>
+    <t>S08000014</t>
+  </si>
+  <si>
+    <t>hb_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>baseline_p</t>
+  </si>
+  <si>
+    <t>diabetes_type</t>
+  </si>
+  <si>
+    <t>% of diabetes pop are obese (BMI ≥ 30)</t>
+  </si>
+  <si>
+    <t>midyr_pop_est</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>how best to structure the data</t>
+  </si>
+  <si>
+    <t>how best to visualise</t>
+  </si>
+  <si>
+    <t>what metrics to focus on</t>
+  </si>
+  <si>
+    <t>report some metrics over time e.g. prevalence (2007-2011)</t>
+  </si>
+  <si>
+    <t>validation of data &amp; testing of metrics</t>
+  </si>
+  <si>
+    <t>separate datasheet for prevalence (see 1 &amp; 6)</t>
+  </si>
+  <si>
+    <t>numbers not working properly when aggregating for a board/typedm… because we calc average but we need a separate metric for all typedm, or to sum by type and average by board</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>diabetics on register</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +444,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,20 +508,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -426,8 +579,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -727,993 +912,2776 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2" s="45" t="s">
+        <v>103</v>
       </c>
       <c r="D2">
         <v>2221</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>85</v>
+      <c r="F2" s="36">
+        <f>SUM(E$2:E$15)/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="D3">
         <v>614</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>85</v>
+      <c r="F3" s="36">
+        <f t="shared" ref="F3:F15" si="0">SUM(E$2:E$15)/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="D4">
         <v>893</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>85</v>
+      <c r="F4" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="D5">
         <v>1969</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>85</v>
+      <c r="F5" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>82</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="D6">
         <v>1606</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>85</v>
+      <c r="F6" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="D7">
         <v>3053</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>85</v>
+      <c r="F7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="D8">
         <v>6180</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>85</v>
+      <c r="F8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
+        <v>82</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="D9">
         <v>1758</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>85</v>
+      <c r="F9" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="D10">
         <v>3513</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>85</v>
+      <c r="F10" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+        <v>82</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="D11">
         <v>4175</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>85</v>
+      <c r="F11" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="D12">
         <v>120</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>85</v>
+      <c r="F12" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
+        <v>82</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="D13">
         <v>871</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>85</v>
+      <c r="F13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="D14">
         <v>1864</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="F14" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="2">
+        <v>182</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4">
-        <v>182</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
+      <c r="C16" s="45" t="s">
+        <v>103</v>
       </c>
       <c r="D16">
         <v>17919</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="42">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>85</v>
+      <c r="F16" s="36">
+        <f>SUM(E$16:E$29)/14</f>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="D17">
         <v>4846</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="42">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>85</v>
+      <c r="F17" s="36">
+        <f t="shared" ref="F17:F29" si="1">SUM(E$16:E$29)/14</f>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="D18">
         <v>7236</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="42">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>85</v>
+      <c r="F18" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="D19">
         <v>16164</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="42">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>85</v>
+      <c r="F19" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="D20">
         <v>12528</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="42">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>85</v>
+      <c r="F20" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="D21">
         <v>20902</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="42">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>85</v>
+      <c r="F21" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="D22">
         <v>50005</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="42">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>85</v>
+      <c r="F22" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="D23">
         <v>12479</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="42">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>85</v>
+      <c r="F23" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="D24">
         <v>24998</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="42">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>85</v>
+      <c r="F24" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
+        <v>84</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="D25">
         <v>29551</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="42">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>85</v>
+      <c r="F25" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="D26">
         <v>853</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="42">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>85</v>
+      <c r="F26" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="D27">
         <v>871</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="42">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>85</v>
+      <c r="F27" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="D28">
         <v>18104</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="42">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="F28" s="36">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1058</v>
+      </c>
+      <c r="E29" s="43">
+        <v>4</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30">
+        <f>D2+D16</f>
+        <v>20140</v>
+      </c>
+      <c r="E30" s="42">
+        <f t="shared" ref="E30" si="2">E2+E16</f>
+        <v>5.5</v>
+      </c>
+      <c r="F30" s="36">
+        <f>F2+F16</f>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:F31" si="3">D3+D17</f>
+        <v>5460</v>
+      </c>
+      <c r="E31" s="42">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="F31" s="36">
+        <f t="shared" si="3"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="4">D4+D18</f>
+        <v>8129</v>
+      </c>
+      <c r="E32" s="42">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="F32" s="36">
+        <f t="shared" si="4"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:F33" si="5">D5+D19</f>
+        <v>18133</v>
+      </c>
+      <c r="E33" s="42">
+        <f t="shared" si="5"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F33" s="36">
+        <f t="shared" si="5"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:F34" si="6">D6+D20</f>
+        <v>14134</v>
+      </c>
+      <c r="E34" s="42">
+        <f t="shared" si="6"/>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="F34" s="36">
+        <f t="shared" si="6"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:F35" si="7">D7+D21</f>
+        <v>23955</v>
+      </c>
+      <c r="E35" s="42">
+        <f t="shared" si="7"/>
+        <v>4.7</v>
+      </c>
+      <c r="F35" s="36">
+        <f t="shared" si="7"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:F36" si="8">D8+D22</f>
+        <v>56185</v>
+      </c>
+      <c r="E36" s="42">
+        <f t="shared" si="8"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="F36" s="36">
+        <f t="shared" si="8"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:F37" si="9">D9+D23</f>
+        <v>14237</v>
+      </c>
+      <c r="E37" s="42">
+        <f t="shared" si="9"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F37" s="36">
+        <f t="shared" si="9"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:F38" si="10">D10+D24</f>
+        <v>28511</v>
+      </c>
+      <c r="E38" s="42">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="36">
+        <f t="shared" si="10"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:F39" si="11">D11+D25</f>
+        <v>33726</v>
+      </c>
+      <c r="E39" s="42">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F39" s="36">
+        <f t="shared" si="11"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:F40" si="12">D12+D26</f>
+        <v>973</v>
+      </c>
+      <c r="E40" s="42">
+        <f t="shared" si="12"/>
+        <v>4.8</v>
+      </c>
+      <c r="F40" s="36">
+        <f t="shared" si="12"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:F41" si="13">D13+D27</f>
+        <v>1742</v>
+      </c>
+      <c r="E41" s="42">
+        <f t="shared" si="13"/>
+        <v>4.5</v>
+      </c>
+      <c r="F41" s="36">
+        <f t="shared" si="13"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:F42" si="14">D14+D28</f>
+        <v>19968</v>
+      </c>
+      <c r="E42" s="42">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="36">
+        <f t="shared" si="14"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43:F43" si="15">D15+D29</f>
+        <v>1240</v>
+      </c>
+      <c r="E43" s="43">
+        <f t="shared" si="15"/>
+        <v>4.7</v>
+      </c>
+      <c r="F43" s="38">
+        <f t="shared" si="15"/>
+        <v>4.8071428571428569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="B44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="24">
+        <v>744</v>
+      </c>
+      <c r="E44" s="42">
+        <v>37.6</v>
+      </c>
+      <c r="F44" s="36">
+        <f>SUM(E$44:E$57)/14</f>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="24">
+        <v>178</v>
+      </c>
+      <c r="E45" s="42">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F45" s="36">
+        <f t="shared" ref="F45:F57" si="16">SUM(E$44:E$57)/14</f>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="24">
+        <v>249</v>
+      </c>
+      <c r="E46" s="42">
+        <v>32</v>
+      </c>
+      <c r="F46" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="24">
+        <v>644</v>
+      </c>
+      <c r="E47" s="42">
+        <v>37.9</v>
+      </c>
+      <c r="F47" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="24">
+        <v>573</v>
+      </c>
+      <c r="E48" s="42">
+        <v>40.9</v>
+      </c>
+      <c r="F48" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1317</v>
+      </c>
+      <c r="E49" s="42">
+        <v>46.9</v>
+      </c>
+      <c r="F49" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>1885</v>
+      </c>
+      <c r="E50" s="42">
+        <v>35.6</v>
+      </c>
+      <c r="F50" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51">
+        <v>534</v>
+      </c>
+      <c r="E51" s="42">
+        <v>36.4</v>
+      </c>
+      <c r="F51" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52">
+        <v>988</v>
+      </c>
+      <c r="E52" s="42">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F52" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53">
         <v>1058</v>
       </c>
-      <c r="E29" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="E53" s="42">
+        <v>31.1</v>
+      </c>
+      <c r="F53" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54" s="42">
+        <v>33.6</v>
+      </c>
+      <c r="F54" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55">
+        <v>32</v>
+      </c>
+      <c r="E55" s="42">
+        <v>26.7</v>
+      </c>
+      <c r="F55" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56">
+        <v>759</v>
+      </c>
+      <c r="E56" s="42">
+        <v>43.6</v>
+      </c>
+      <c r="F56" s="36">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="2">
+        <v>70</v>
+      </c>
+      <c r="E57" s="43">
+        <v>40</v>
+      </c>
+      <c r="F57" s="38">
+        <f t="shared" si="16"/>
+        <v>36.728571428571435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="27">
-        <v>744</v>
-      </c>
-      <c r="E30" s="1">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="C58" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58">
+        <v>2296</v>
+      </c>
+      <c r="E58" s="42">
+        <v>13.4</v>
+      </c>
+      <c r="F58" s="36">
+        <f>SUM(E$58:E$71)/14</f>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="27">
-        <v>178</v>
-      </c>
-      <c r="E31" s="1">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="C59" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59">
+        <v>497</v>
+      </c>
+      <c r="E59" s="42">
+        <v>11.5</v>
+      </c>
+      <c r="F59" s="36">
+        <f t="shared" ref="F59:F71" si="17">SUM(E$58:E$71)/14</f>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C60" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60">
+        <v>810</v>
+      </c>
+      <c r="E60" s="42">
+        <v>12.2</v>
+      </c>
+      <c r="F60" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61">
+        <v>1928</v>
+      </c>
+      <c r="E61" s="42">
         <v>13</v>
       </c>
-      <c r="D32" s="27">
-        <v>249</v>
-      </c>
-      <c r="E32" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="F61" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="27">
-        <v>644</v>
-      </c>
-      <c r="E33" s="1">
-        <v>37.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="C62" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62">
+        <v>1687</v>
+      </c>
+      <c r="E62" s="42">
+        <v>14.3</v>
+      </c>
+      <c r="F62" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="27">
-        <v>573</v>
-      </c>
-      <c r="E34" s="1">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="C63" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63">
+        <v>3326</v>
+      </c>
+      <c r="E63" s="42">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F63" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="27">
-        <v>1317</v>
-      </c>
-      <c r="E35" s="1">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="C64" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64">
+        <v>7325</v>
+      </c>
+      <c r="E64" s="42">
+        <v>16.2</v>
+      </c>
+      <c r="F64" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36">
-        <v>1885</v>
-      </c>
-      <c r="E36" s="1">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="C65" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65">
+        <v>1709</v>
+      </c>
+      <c r="E65" s="42">
+        <v>14.9</v>
+      </c>
+      <c r="F65" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>534</v>
-      </c>
-      <c r="E37" s="1">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C66" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66">
+        <v>3339</v>
+      </c>
+      <c r="E66" s="42">
+        <v>14.7</v>
+      </c>
+      <c r="F66" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>988</v>
-      </c>
-      <c r="E38" s="1">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="C67" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67">
+        <v>3249</v>
+      </c>
+      <c r="E67" s="42">
+        <v>12.7</v>
+      </c>
+      <c r="F67" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <v>1058</v>
-      </c>
-      <c r="E39" s="1">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="C68" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68">
+        <v>142</v>
+      </c>
+      <c r="E68" s="42">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F68" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>40</v>
-      </c>
-      <c r="E40" s="1">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="C69" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69">
+        <v>116</v>
+      </c>
+      <c r="E69" s="42">
+        <v>14.4</v>
+      </c>
+      <c r="F69" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>32</v>
-      </c>
-      <c r="E41" s="1">
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="C70" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70">
+        <v>2568</v>
+      </c>
+      <c r="E70" s="42">
+        <v>14.8</v>
+      </c>
+      <c r="F70" s="36">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>759</v>
-      </c>
-      <c r="E42" s="1">
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="C71" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="2">
+        <v>185</v>
+      </c>
+      <c r="E71" s="43">
+        <v>18.3</v>
+      </c>
+      <c r="F71" s="38">
+        <f t="shared" si="17"/>
+        <v>14.564285714285717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72">
+        <f>D44+D58</f>
+        <v>3040</v>
+      </c>
+      <c r="E72" s="42">
+        <f t="shared" ref="E72" si="18">E44+E58</f>
+        <v>51</v>
+      </c>
+      <c r="F72" s="36">
+        <f>F44+F58</f>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:F73" si="19">D45+D59</f>
+        <v>675</v>
+      </c>
+      <c r="E73" s="42">
+        <f t="shared" si="19"/>
+        <v>48.7</v>
+      </c>
+      <c r="F73" s="36">
+        <f t="shared" si="19"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ref="D74:F74" si="20">D46+D60</f>
+        <v>1059</v>
+      </c>
+      <c r="E74" s="42">
+        <f t="shared" si="20"/>
+        <v>44.2</v>
+      </c>
+      <c r="F74" s="36">
+        <f t="shared" si="20"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:F75" si="21">D47+D61</f>
+        <v>2572</v>
+      </c>
+      <c r="E75" s="42">
+        <f t="shared" si="21"/>
+        <v>50.9</v>
+      </c>
+      <c r="F75" s="36">
+        <f t="shared" si="21"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:F76" si="22">D48+D62</f>
+        <v>2260</v>
+      </c>
+      <c r="E76" s="42">
+        <f t="shared" si="22"/>
+        <v>55.2</v>
+      </c>
+      <c r="F76" s="36">
+        <f t="shared" si="22"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77:F77" si="23">D49+D63</f>
+        <v>4643</v>
+      </c>
+      <c r="E77" s="42">
+        <f t="shared" si="23"/>
+        <v>63.5</v>
+      </c>
+      <c r="F77" s="36">
+        <f t="shared" si="23"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ref="D78:F78" si="24">D50+D64</f>
+        <v>9210</v>
+      </c>
+      <c r="E78" s="42">
+        <f t="shared" si="24"/>
+        <v>51.8</v>
+      </c>
+      <c r="F78" s="36">
+        <f t="shared" si="24"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:F79" si="25">D51+D65</f>
+        <v>2243</v>
+      </c>
+      <c r="E79" s="42">
+        <f t="shared" si="25"/>
+        <v>51.3</v>
+      </c>
+      <c r="F79" s="36">
+        <f t="shared" si="25"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:F80" si="26">D52+D66</f>
+        <v>4327</v>
+      </c>
+      <c r="E80" s="42">
+        <f t="shared" si="26"/>
+        <v>49.400000000000006</v>
+      </c>
+      <c r="F80" s="36">
+        <f t="shared" si="26"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:F81" si="27">D53+D67</f>
+        <v>4307</v>
+      </c>
+      <c r="E81" s="42">
+        <f t="shared" si="27"/>
+        <v>43.8</v>
+      </c>
+      <c r="F81" s="36">
+        <f t="shared" si="27"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:F82" si="28">D54+D68</f>
+        <v>182</v>
+      </c>
+      <c r="E82" s="42">
+        <f t="shared" si="28"/>
+        <v>50.5</v>
+      </c>
+      <c r="F82" s="36">
+        <f t="shared" si="28"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:F83" si="29">D55+D69</f>
+        <v>148</v>
+      </c>
+      <c r="E83" s="42">
+        <f t="shared" si="29"/>
+        <v>41.1</v>
+      </c>
+      <c r="F83" s="36">
+        <f t="shared" si="29"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84:F84" si="30">D56+D70</f>
+        <v>3327</v>
+      </c>
+      <c r="E84" s="42">
+        <f t="shared" si="30"/>
+        <v>58.400000000000006</v>
+      </c>
+      <c r="F84" s="36">
+        <f t="shared" si="30"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" ref="D85:F85" si="31">D57+D71</f>
+        <v>255</v>
+      </c>
+      <c r="E85" s="43">
+        <f t="shared" si="31"/>
+        <v>58.3</v>
+      </c>
+      <c r="F85" s="38">
+        <f t="shared" si="31"/>
+        <v>51.292857142857152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="24">
+        <v>0</v>
+      </c>
+      <c r="E86" s="40">
+        <v>25.4</v>
+      </c>
+      <c r="F86" s="36">
+        <f>SUM(E$86:E$99)/14</f>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="24">
+        <v>0</v>
+      </c>
+      <c r="E87" s="40">
+        <v>29.6</v>
+      </c>
+      <c r="F87" s="36">
+        <f t="shared" ref="F87:F99" si="32">SUM(E$86:E$99)/14</f>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="24">
+        <v>0</v>
+      </c>
+      <c r="E88" s="40">
+        <v>27.7</v>
+      </c>
+      <c r="F88" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="24">
+        <v>0</v>
+      </c>
+      <c r="E89" s="40">
+        <v>25.9</v>
+      </c>
+      <c r="F89" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" s="24">
+        <v>0</v>
+      </c>
+      <c r="E90" s="40">
+        <v>23.4</v>
+      </c>
+      <c r="F90" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="24">
+        <v>0</v>
+      </c>
+      <c r="E91" s="40">
+        <v>22.5</v>
+      </c>
+      <c r="F91" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="24">
+        <v>0</v>
+      </c>
+      <c r="E92" s="40">
+        <v>23.1</v>
+      </c>
+      <c r="F92" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="24">
+        <v>0</v>
+      </c>
+      <c r="E93" s="40">
+        <v>25.1</v>
+      </c>
+      <c r="F93" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="24">
+        <v>0</v>
+      </c>
+      <c r="E94" s="40">
+        <v>26.4</v>
+      </c>
+      <c r="F94" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="24">
+        <v>0</v>
+      </c>
+      <c r="E95" s="40">
+        <v>23.2</v>
+      </c>
+      <c r="F95" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="24">
+        <v>0</v>
+      </c>
+      <c r="E96" s="40">
+        <v>29.1</v>
+      </c>
+      <c r="F96" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="24">
+        <v>0</v>
+      </c>
+      <c r="E97" s="40">
+        <v>32.1</v>
+      </c>
+      <c r="F97" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="24">
+        <v>0</v>
+      </c>
+      <c r="E98" s="40">
+        <v>23.3</v>
+      </c>
+      <c r="F98" s="36">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="35">
+        <v>0</v>
+      </c>
+      <c r="E99" s="39">
+        <v>24.2</v>
+      </c>
+      <c r="F99" s="38">
+        <f t="shared" si="32"/>
+        <v>25.785714285714285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="4">
-        <v>70</v>
-      </c>
-      <c r="E43" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>2296</v>
-      </c>
-      <c r="E44" s="1">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>497</v>
-      </c>
-      <c r="E45" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46">
-        <v>810</v>
-      </c>
-      <c r="E46" s="1">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>1928</v>
-      </c>
-      <c r="E47" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>1687</v>
-      </c>
-      <c r="E48" s="1">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>3326</v>
-      </c>
-      <c r="E49" s="1">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50">
-        <v>7325</v>
-      </c>
-      <c r="E50" s="1">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51">
-        <v>1709</v>
-      </c>
-      <c r="E51" s="1">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>3339</v>
-      </c>
-      <c r="E52" s="1">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53">
-        <v>3249</v>
-      </c>
-      <c r="E53" s="1">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>142</v>
-      </c>
-      <c r="E54" s="1">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55">
+      <c r="C100" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="24">
+        <v>0</v>
+      </c>
+      <c r="E100" s="40">
+        <v>54.8</v>
+      </c>
+      <c r="F100" s="36">
+        <f>SUM(E$100:E$113)/14</f>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="24">
+        <v>0</v>
+      </c>
+      <c r="E101" s="40">
+        <v>55.6</v>
+      </c>
+      <c r="F101" s="36">
+        <f t="shared" ref="F101:F113" si="33">SUM(E$100:E$113)/14</f>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="24">
+        <v>0</v>
+      </c>
+      <c r="E102" s="40">
+        <v>55</v>
+      </c>
+      <c r="F102" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="24">
+        <v>0</v>
+      </c>
+      <c r="E103" s="40">
+        <v>58.7</v>
+      </c>
+      <c r="F103" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="24">
+        <v>0</v>
+      </c>
+      <c r="E104" s="40">
+        <v>57.4</v>
+      </c>
+      <c r="F104" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="24">
+        <v>0</v>
+      </c>
+      <c r="E105" s="40">
+        <v>54.7</v>
+      </c>
+      <c r="F105" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="24">
+        <v>0</v>
+      </c>
+      <c r="E106" s="40">
+        <v>53.1</v>
+      </c>
+      <c r="F106" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="24">
+        <v>0</v>
+      </c>
+      <c r="E107" s="40">
+        <v>55.2</v>
+      </c>
+      <c r="F107" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="24">
+        <v>0</v>
+      </c>
+      <c r="E108" s="40">
+        <v>56.7</v>
+      </c>
+      <c r="F108" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="24">
+        <v>0</v>
+      </c>
+      <c r="E109" s="40">
+        <v>56</v>
+      </c>
+      <c r="F109" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="24">
+        <v>0</v>
+      </c>
+      <c r="E110" s="40">
+        <v>60.3</v>
+      </c>
+      <c r="F110" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="24">
+        <v>0</v>
+      </c>
+      <c r="E111" s="40">
+        <v>60.9</v>
+      </c>
+      <c r="F111" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="24">
+        <v>0</v>
+      </c>
+      <c r="E112" s="40">
+        <v>55.5</v>
+      </c>
+      <c r="F112" s="36">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="1">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>2568</v>
-      </c>
-      <c r="E56" s="1">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="4">
-        <v>185</v>
-      </c>
-      <c r="E57" s="5">
-        <v>18.3</v>
+      <c r="D113" s="35">
+        <v>0</v>
+      </c>
+      <c r="E113" s="39">
+        <v>57.5</v>
+      </c>
+      <c r="F113" s="38">
+        <f t="shared" si="33"/>
+        <v>56.528571428571425</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114">
+        <f>D86+D100</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="42">
+        <f t="shared" ref="E114" si="34">E86+E100</f>
+        <v>80.199999999999989</v>
+      </c>
+      <c r="F114" s="36">
+        <f>F86+F100</f>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ref="D115:F115" si="35">D87+D101</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="42">
+        <f t="shared" si="35"/>
+        <v>85.2</v>
+      </c>
+      <c r="F115" s="36">
+        <f t="shared" si="35"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ref="D116:F116" si="36">D88+D102</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="42">
+        <f t="shared" si="36"/>
+        <v>82.7</v>
+      </c>
+      <c r="F116" s="36">
+        <f t="shared" si="36"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>133</v>
+      </c>
+      <c r="C117" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ref="D117:F117" si="37">D89+D103</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="42">
+        <f t="shared" si="37"/>
+        <v>84.6</v>
+      </c>
+      <c r="F117" s="36">
+        <f t="shared" si="37"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ref="D118:F118" si="38">D90+D104</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="42">
+        <f t="shared" si="38"/>
+        <v>80.8</v>
+      </c>
+      <c r="F118" s="36">
+        <f t="shared" si="38"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ref="D119:F119" si="39">D91+D105</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="42">
+        <f t="shared" si="39"/>
+        <v>77.2</v>
+      </c>
+      <c r="F119" s="36">
+        <f t="shared" si="39"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ref="D120:F120" si="40">D92+D106</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="42">
+        <f t="shared" si="40"/>
+        <v>76.2</v>
+      </c>
+      <c r="F120" s="36">
+        <f t="shared" si="40"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ref="D121:F121" si="41">D93+D107</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="42">
+        <f t="shared" si="41"/>
+        <v>80.300000000000011</v>
+      </c>
+      <c r="F121" s="36">
+        <f t="shared" si="41"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ref="D122:F122" si="42">D94+D108</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="42">
+        <f t="shared" si="42"/>
+        <v>83.1</v>
+      </c>
+      <c r="F122" s="36">
+        <f t="shared" si="42"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123:F123" si="43">D95+D109</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="42">
+        <f t="shared" si="43"/>
+        <v>79.2</v>
+      </c>
+      <c r="F123" s="36">
+        <f t="shared" si="43"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ref="D124:F124" si="44">D96+D110</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="42">
+        <f t="shared" si="44"/>
+        <v>89.4</v>
+      </c>
+      <c r="F124" s="36">
+        <f t="shared" si="44"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125">
+        <f t="shared" ref="D125:F125" si="45">D97+D111</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="42">
+        <f t="shared" si="45"/>
+        <v>93</v>
+      </c>
+      <c r="F125" s="36">
+        <f t="shared" si="45"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126">
+        <f t="shared" ref="D126:F126" si="46">D98+D112</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="42">
+        <f t="shared" si="46"/>
+        <v>78.8</v>
+      </c>
+      <c r="F126" s="36">
+        <f t="shared" si="46"/>
+        <v>82.314285714285717</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" ref="D127:F127" si="47">D99+D113</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="43">
+        <f t="shared" si="47"/>
+        <v>81.7</v>
+      </c>
+      <c r="F127" s="38">
+        <f t="shared" si="47"/>
+        <v>82.314285714285717</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1721,301 +3689,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="50" style="6" customWidth="1"/>
-    <col min="4" max="16" width="12.42578125" style="22" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="11" customWidth="1"/>
-    <col min="18" max="26" width="12.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="50" style="3" customWidth="1"/>
+    <col min="4" max="16" width="12.42578125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="8" customWidth="1"/>
+    <col min="18" max="26" width="12.42578125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="P1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="X1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19">
+      <c r="C2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16">
         <f>MIN($D2:$Q2)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="16">
         <f>MAX($D2:$Q2)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="19" t="e">
+      <c r="T2" s="16" t="e">
         <f>AVERAGE($D2:$Q2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U2" s="19" t="e">
+      <c r="U2" s="16" t="e">
         <f>MEDIAN($D2:$Q2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V2" s="19" t="e">
+      <c r="V2" s="16" t="e">
         <f>_xlfn.QUARTILE.INC($D2:$Q2,0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W2" s="19" t="e">
+      <c r="W2" s="16" t="e">
         <f>_xlfn.QUARTILE.INC($D2:$Q2,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="X2" s="19" t="e">
+      <c r="X2" s="16" t="e">
         <f>_xlfn.QUARTILE.INC($D2:$Q2,2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Y2" s="19" t="e">
+      <c r="Y2" s="16" t="e">
         <f>_xlfn.QUARTILE.INC($D2:$Q2,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Z2" s="19" t="e">
+      <c r="Z2" s="16" t="e">
         <f>_xlfn.QUARTILE.INC($D2:$Q2,4)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="19">
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16">
         <f t="shared" ref="R3:R54" si="0">MIN($D3:$Q3)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="16">
         <f t="shared" ref="S3:S54" si="1">MAX($D3:$Q3)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="19" t="e">
+      <c r="T3" s="16" t="e">
         <f t="shared" ref="T3:T54" si="2">AVERAGE($D3:$Q3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U3" s="19" t="e">
+      <c r="U3" s="16" t="e">
         <f t="shared" ref="U3:U54" si="3">MEDIAN($D3:$Q3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V3" s="19" t="e">
+      <c r="V3" s="16" t="e">
         <f t="shared" ref="V3:V54" si="4">_xlfn.QUARTILE.INC($D3:$Q3,0)</f>
         <v>#NUM!</v>
       </c>
-      <c r="W3" s="19" t="e">
+      <c r="W3" s="16" t="e">
         <f t="shared" ref="W3:W54" si="5">_xlfn.QUARTILE.INC($D3:$Q3,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="X3" s="19" t="e">
+      <c r="X3" s="16" t="e">
         <f t="shared" ref="X3:X54" si="6">_xlfn.QUARTILE.INC($D3:$Q3,2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Y3" s="19" t="e">
+      <c r="Y3" s="16" t="e">
         <f t="shared" ref="Y3:Y54" si="7">_xlfn.QUARTILE.INC($D3:$Q3,3)</f>
         <v>#NUM!</v>
       </c>
-      <c r="Z3" s="19" t="e">
+      <c r="Z3" s="16" t="e">
         <f t="shared" ref="Z3:Z54" si="8">_xlfn.QUARTILE.INC($D3:$Q3,4)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
         <v>0.6</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>0.5</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>0.6</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>0.5</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>0.6</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>0.5</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>0.6</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>0.6</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>0.6</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>0.5</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <v>0.6</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="7">
         <v>0.6</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="8">
         <v>0.7</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="16">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="16">
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="16">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="16">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="16">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="16">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="16">
         <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="16">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
@@ -2024,84 +3992,84 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>4.3</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>4.3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <v>4.2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>3.8</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>4</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="17">
         <v>3.5</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="17">
         <v>4.2</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="17">
         <v>3.9</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="17">
         <v>4.5</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="18">
         <v>4</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="16">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="16">
         <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="16">
         <f t="shared" si="2"/>
         <v>4.2357142857142858</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="16">
         <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="16">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="16">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="16">
         <f t="shared" si="6"/>
         <v>4.25</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="16">
         <f t="shared" si="7"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="16">
         <f t="shared" si="8"/>
         <v>4.9000000000000004</v>
       </c>
@@ -2110,142 +4078,142 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="19">
         <v>0.9</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>1.6</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <v>0.7</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <v>0.7</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>0.8</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="19">
         <v>0.9</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="19">
         <v>1.9</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="19">
         <v>0.8</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="19">
         <v>0.9</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="19">
         <v>1.3</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="19">
         <v>1.9</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="19">
         <v>0.9</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="8">
         <v>2.7</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="16">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="16">
         <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="16">
         <f t="shared" si="2"/>
         <v>1.2142857142857146</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="16">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="16">
         <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="16">
         <f t="shared" si="5"/>
         <v>0.82500000000000007</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="16">
         <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="16">
         <f t="shared" si="7"/>
         <v>1.5250000000000001</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="16">
         <f t="shared" si="8"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26">
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7" s="26" t="e">
+      <c r="T7" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="26" t="e">
+      <c r="U7" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V7" s="26" t="e">
+      <c r="V7" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W7" s="26" t="e">
+      <c r="W7" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X7" s="26" t="e">
+      <c r="X7" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y7" s="26" t="e">
+      <c r="Y7" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z7" s="26" t="e">
+      <c r="Z7" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2254,42 +4222,42 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="19">
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T8" s="19" t="e">
+      <c r="T8" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="19" t="e">
+      <c r="U8" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V8" s="19" t="e">
+      <c r="V8" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W8" s="19" t="e">
+      <c r="W8" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X8" s="19" t="e">
+      <c r="X8" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y8" s="19" t="e">
+      <c r="Y8" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z8" s="19" t="e">
+      <c r="Z8" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2298,42 +4266,42 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="19">
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T9" s="19" t="e">
+      <c r="T9" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U9" s="19" t="e">
+      <c r="U9" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V9" s="19" t="e">
+      <c r="V9" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W9" s="19" t="e">
+      <c r="W9" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X9" s="19" t="e">
+      <c r="X9" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y9" s="19" t="e">
+      <c r="Y9" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z9" s="19" t="e">
+      <c r="Z9" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2342,42 +4310,42 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="19">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T10" s="19" t="e">
+      <c r="T10" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="19" t="e">
+      <c r="U10" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V10" s="19" t="e">
+      <c r="V10" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W10" s="19" t="e">
+      <c r="W10" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X10" s="19" t="e">
+      <c r="X10" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y10" s="19" t="e">
+      <c r="Y10" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z10" s="19" t="e">
+      <c r="Z10" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2386,42 +4354,42 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="19">
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="19" t="e">
+      <c r="T11" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="19" t="e">
+      <c r="U11" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V11" s="19" t="e">
+      <c r="V11" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W11" s="19" t="e">
+      <c r="W11" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X11" s="19" t="e">
+      <c r="X11" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y11" s="19" t="e">
+      <c r="Y11" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z11" s="19" t="e">
+      <c r="Z11" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2430,42 +4398,42 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="19">
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T12" s="19" t="e">
+      <c r="T12" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="19" t="e">
+      <c r="U12" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V12" s="19" t="e">
+      <c r="V12" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W12" s="19" t="e">
+      <c r="W12" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X12" s="19" t="e">
+      <c r="X12" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y12" s="19" t="e">
+      <c r="Y12" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z12" s="19" t="e">
+      <c r="Z12" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2474,42 +4442,42 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="19">
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="19" t="e">
+      <c r="T13" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="19" t="e">
+      <c r="U13" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V13" s="19" t="e">
+      <c r="V13" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W13" s="19" t="e">
+      <c r="W13" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X13" s="19" t="e">
+      <c r="X13" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y13" s="19" t="e">
+      <c r="Y13" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z13" s="19" t="e">
+      <c r="Z13" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2518,42 +4486,42 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="19">
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T14" s="19" t="e">
+      <c r="T14" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U14" s="19" t="e">
+      <c r="U14" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V14" s="19" t="e">
+      <c r="V14" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W14" s="19" t="e">
+      <c r="W14" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X14" s="19" t="e">
+      <c r="X14" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y14" s="19" t="e">
+      <c r="Y14" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z14" s="19" t="e">
+      <c r="Z14" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2562,42 +4530,42 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="19">
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="19">
+      <c r="S15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T15" s="19" t="e">
+      <c r="T15" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="19" t="e">
+      <c r="U15" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V15" s="19" t="e">
+      <c r="V15" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W15" s="19" t="e">
+      <c r="W15" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X15" s="19" t="e">
+      <c r="X15" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y15" s="19" t="e">
+      <c r="Y15" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z15" s="19" t="e">
+      <c r="Z15" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2606,42 +4574,42 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" s="19">
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T16" s="19" t="e">
+      <c r="T16" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U16" s="19" t="e">
+      <c r="U16" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V16" s="19" t="e">
+      <c r="V16" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W16" s="19" t="e">
+      <c r="W16" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X16" s="19" t="e">
+      <c r="X16" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y16" s="19" t="e">
+      <c r="Y16" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z16" s="19" t="e">
+      <c r="Z16" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2650,42 +4618,42 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="19">
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T17" s="19" t="e">
+      <c r="T17" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="19" t="e">
+      <c r="U17" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V17" s="19" t="e">
+      <c r="V17" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W17" s="19" t="e">
+      <c r="W17" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X17" s="19" t="e">
+      <c r="X17" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y17" s="19" t="e">
+      <c r="Y17" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z17" s="19" t="e">
+      <c r="Z17" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2694,42 +4662,42 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" s="19">
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T18" s="19" t="e">
+      <c r="T18" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="19" t="e">
+      <c r="U18" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V18" s="19" t="e">
+      <c r="V18" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W18" s="19" t="e">
+      <c r="W18" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X18" s="19" t="e">
+      <c r="X18" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y18" s="19" t="e">
+      <c r="Y18" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z18" s="19" t="e">
+      <c r="Z18" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2738,42 +4706,42 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" s="19">
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T19" s="19" t="e">
+      <c r="T19" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U19" s="19" t="e">
+      <c r="U19" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V19" s="19" t="e">
+      <c r="V19" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W19" s="19" t="e">
+      <c r="W19" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X19" s="19" t="e">
+      <c r="X19" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y19" s="19" t="e">
+      <c r="Y19" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z19" s="19" t="e">
+      <c r="Z19" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2782,42 +4750,42 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R20" s="19">
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T20" s="19" t="e">
+      <c r="T20" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U20" s="19" t="e">
+      <c r="U20" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V20" s="19" t="e">
+      <c r="V20" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W20" s="19" t="e">
+      <c r="W20" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X20" s="19" t="e">
+      <c r="X20" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y20" s="19" t="e">
+      <c r="Y20" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z20" s="19" t="e">
+      <c r="Z20" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2826,42 +4794,42 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="19">
+      <c r="C21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T21" s="19" t="e">
+      <c r="T21" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" s="19" t="e">
+      <c r="U21" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V21" s="19" t="e">
+      <c r="V21" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W21" s="19" t="e">
+      <c r="W21" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X21" s="19" t="e">
+      <c r="X21" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y21" s="19" t="e">
+      <c r="Y21" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z21" s="19" t="e">
+      <c r="Z21" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2870,42 +4838,42 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="19">
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22" s="19" t="e">
+      <c r="T22" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U22" s="19" t="e">
+      <c r="U22" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V22" s="19" t="e">
+      <c r="V22" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W22" s="19" t="e">
+      <c r="W22" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X22" s="19" t="e">
+      <c r="X22" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y22" s="19" t="e">
+      <c r="Y22" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z22" s="19" t="e">
+      <c r="Z22" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2914,42 +4882,42 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R23" s="19">
+      <c r="C23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T23" s="19" t="e">
+      <c r="T23" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U23" s="19" t="e">
+      <c r="U23" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V23" s="19" t="e">
+      <c r="V23" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W23" s="19" t="e">
+      <c r="W23" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X23" s="19" t="e">
+      <c r="X23" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y23" s="19" t="e">
+      <c r="Y23" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z23" s="19" t="e">
+      <c r="Z23" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -2958,42 +4926,42 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="R24" s="19">
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T24" s="19" t="e">
+      <c r="T24" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U24" s="19" t="e">
+      <c r="U24" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V24" s="19" t="e">
+      <c r="V24" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W24" s="19" t="e">
+      <c r="W24" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X24" s="19" t="e">
+      <c r="X24" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y24" s="19" t="e">
+      <c r="Y24" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z24" s="19" t="e">
+      <c r="Z24" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3002,42 +4970,42 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R25" s="19">
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T25" s="19" t="e">
+      <c r="T25" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" s="19" t="e">
+      <c r="U25" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V25" s="19" t="e">
+      <c r="V25" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W25" s="19" t="e">
+      <c r="W25" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X25" s="19" t="e">
+      <c r="X25" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y25" s="19" t="e">
+      <c r="Y25" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z25" s="19" t="e">
+      <c r="Z25" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3046,42 +5014,42 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R26" s="19">
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T26" s="19" t="e">
+      <c r="T26" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U26" s="19" t="e">
+      <c r="U26" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V26" s="19" t="e">
+      <c r="V26" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W26" s="19" t="e">
+      <c r="W26" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X26" s="19" t="e">
+      <c r="X26" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y26" s="19" t="e">
+      <c r="Y26" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z26" s="19" t="e">
+      <c r="Z26" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3090,302 +5058,302 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R27" s="19">
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T27" s="19" t="e">
+      <c r="T27" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="19" t="e">
+      <c r="U27" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V27" s="19" t="e">
+      <c r="V27" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W27" s="19" t="e">
+      <c r="W27" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X27" s="19" t="e">
+      <c r="X27" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y27" s="19" t="e">
+      <c r="Y27" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z27" s="19" t="e">
+      <c r="Z27" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="26">
+      <c r="C28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T28" s="26" t="e">
+      <c r="T28" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U28" s="26" t="e">
+      <c r="U28" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V28" s="26" t="e">
+      <c r="V28" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W28" s="26" t="e">
+      <c r="W28" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X28" s="26" t="e">
+      <c r="X28" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y28" s="26" t="e">
+      <c r="Y28" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z28" s="26" t="e">
+      <c r="Z28" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+    <row r="29" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="19">
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29" s="19" t="e">
+      <c r="T29" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="19" t="e">
+      <c r="U29" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V29" s="19" t="e">
+      <c r="V29" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W29" s="19" t="e">
+      <c r="W29" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X29" s="19" t="e">
+      <c r="X29" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y29" s="19" t="e">
+      <c r="Y29" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z29" s="19" t="e">
+      <c r="Z29" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26">
+      <c r="C30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T30" s="26" t="e">
+      <c r="T30" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="26" t="e">
+      <c r="U30" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V30" s="26" t="e">
+      <c r="V30" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W30" s="26" t="e">
+      <c r="W30" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X30" s="26" t="e">
+      <c r="X30" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y30" s="26" t="e">
+      <c r="Y30" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z30" s="26" t="e">
+      <c r="Z30" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+    <row r="31" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="7">
         <v>25.4</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="7">
         <v>29.6</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="7">
         <v>27.7</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="7">
         <v>25.9</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="7">
         <v>23.4</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="7">
         <v>22.5</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="7">
         <v>23.1</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="7">
         <v>25.1</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="7">
         <v>26.4</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="7">
         <v>23.2</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="7">
         <v>29.1</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="7">
         <v>32.1</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="7">
         <v>23.3</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="8">
         <v>24.2</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="16">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="S31" s="19">
+      <c r="S31" s="16">
         <f t="shared" si="1"/>
         <v>32.1</v>
       </c>
-      <c r="T31" s="19">
+      <c r="T31" s="16">
         <f t="shared" si="2"/>
         <v>25.785714285714285</v>
       </c>
-      <c r="U31" s="19">
+      <c r="U31" s="16">
         <f t="shared" si="3"/>
         <v>25.25</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V31" s="16">
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
-      <c r="W31" s="19">
+      <c r="W31" s="16">
         <f t="shared" si="5"/>
         <v>23.324999999999999</v>
       </c>
-      <c r="X31" s="19">
+      <c r="X31" s="16">
         <f t="shared" si="6"/>
         <v>25.25</v>
       </c>
-      <c r="Y31" s="19">
+      <c r="Y31" s="16">
         <f t="shared" si="7"/>
         <v>27.375</v>
       </c>
-      <c r="Z31" s="19">
+      <c r="Z31" s="16">
         <f t="shared" si="8"/>
         <v>32.1</v>
       </c>
@@ -3394,84 +5362,84 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="19">
         <v>54.8</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="19">
         <v>55.6</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="19">
         <v>55</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="19">
         <v>58.7</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="19">
         <v>57.4</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="19">
         <v>54.7</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="19">
         <v>53.1</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="19">
         <v>55.2</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="19">
         <v>56.7</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="19">
         <v>56</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="19">
         <v>60.3</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="19">
         <v>60.9</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32" s="19">
         <v>55.5</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="8">
         <v>57.5</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="16">
         <f t="shared" si="0"/>
         <v>53.1</v>
       </c>
-      <c r="S32" s="19">
+      <c r="S32" s="16">
         <f t="shared" si="1"/>
         <v>60.9</v>
       </c>
-      <c r="T32" s="19">
+      <c r="T32" s="16">
         <f t="shared" si="2"/>
         <v>56.528571428571425</v>
       </c>
-      <c r="U32" s="19">
+      <c r="U32" s="16">
         <f t="shared" si="3"/>
         <v>55.8</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V32" s="16">
         <f t="shared" si="4"/>
         <v>53.1</v>
       </c>
-      <c r="W32" s="19">
+      <c r="W32" s="16">
         <f t="shared" si="5"/>
         <v>55.05</v>
       </c>
-      <c r="X32" s="19">
+      <c r="X32" s="16">
         <f t="shared" si="6"/>
         <v>55.8</v>
       </c>
-      <c r="Y32" s="19">
+      <c r="Y32" s="16">
         <f t="shared" si="7"/>
         <v>57.475000000000001</v>
       </c>
-      <c r="Z32" s="19">
+      <c r="Z32" s="16">
         <f t="shared" si="8"/>
         <v>60.9</v>
       </c>
@@ -3480,100 +5448,100 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="R33" s="19">
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S33" s="19">
+      <c r="S33" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T33" s="19" t="e">
+      <c r="T33" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U33" s="19" t="e">
+      <c r="U33" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V33" s="19" t="e">
+      <c r="V33" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W33" s="19" t="e">
+      <c r="W33" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X33" s="19" t="e">
+      <c r="X33" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y33" s="19" t="e">
+      <c r="Y33" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z33" s="19" t="e">
+      <c r="Z33" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="26">
+      <c r="C34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T34" s="26" t="e">
+      <c r="T34" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U34" s="26" t="e">
+      <c r="U34" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V34" s="26" t="e">
+      <c r="V34" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W34" s="26" t="e">
+      <c r="W34" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X34" s="26" t="e">
+      <c r="X34" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y34" s="26" t="e">
+      <c r="Y34" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z34" s="26" t="e">
+      <c r="Z34" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3582,84 +5550,84 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="22">
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="19">
         <v>37.6</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="19">
         <v>37.200000000000003</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="19">
         <v>32</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="19">
         <v>37.9</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="19">
         <v>40.9</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="19">
         <v>46.9</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="19">
         <v>35.6</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="19">
         <v>36.4</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="19">
         <v>34.700000000000003</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="19">
         <v>31.1</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="19">
         <v>33.6</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="19">
         <v>26.7</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="19">
         <v>43.6</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="8">
         <v>40</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R35" s="16">
         <f t="shared" si="0"/>
         <v>26.7</v>
       </c>
-      <c r="S35" s="19">
+      <c r="S35" s="16">
         <f t="shared" si="1"/>
         <v>46.9</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T35" s="16">
         <f t="shared" si="2"/>
         <v>36.728571428571435</v>
       </c>
-      <c r="U35" s="19">
+      <c r="U35" s="16">
         <f t="shared" si="3"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="V35" s="19">
+      <c r="V35" s="16">
         <f t="shared" si="4"/>
         <v>26.7</v>
       </c>
-      <c r="W35" s="19">
+      <c r="W35" s="16">
         <f t="shared" si="5"/>
         <v>33.875</v>
       </c>
-      <c r="X35" s="19">
+      <c r="X35" s="16">
         <f t="shared" si="6"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="Y35" s="19">
+      <c r="Y35" s="16">
         <f t="shared" si="7"/>
         <v>39.475000000000001</v>
       </c>
-      <c r="Z35" s="19">
+      <c r="Z35" s="16">
         <f t="shared" si="8"/>
         <v>46.9</v>
       </c>
@@ -3668,84 +5636,84 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="22">
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="19">
         <v>13.4</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="19">
         <v>11.5</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="19">
         <v>12.2</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="19">
         <v>13</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="19">
         <v>14.3</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="19">
         <v>16.600000000000001</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="19">
         <v>16.2</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="19">
         <v>14.9</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="19">
         <v>14.7</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="19">
         <v>12.7</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="19">
         <v>16.899999999999999</v>
       </c>
-      <c r="O36" s="22">
+      <c r="O36" s="19">
         <v>14.4</v>
       </c>
-      <c r="P36" s="22">
+      <c r="P36" s="19">
         <v>14.8</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="8">
         <v>18.3</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="16">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="S36" s="19">
+      <c r="S36" s="16">
         <f t="shared" si="1"/>
         <v>18.3</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="16">
         <f t="shared" si="2"/>
         <v>14.564285714285717</v>
       </c>
-      <c r="U36" s="19">
+      <c r="U36" s="16">
         <f t="shared" si="3"/>
         <v>14.55</v>
       </c>
-      <c r="V36" s="19">
+      <c r="V36" s="16">
         <f t="shared" si="4"/>
         <v>11.5</v>
       </c>
-      <c r="W36" s="19">
+      <c r="W36" s="16">
         <f t="shared" si="5"/>
         <v>13.1</v>
       </c>
-      <c r="X36" s="19">
+      <c r="X36" s="16">
         <f t="shared" si="6"/>
         <v>14.55</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="Y36" s="16">
         <f t="shared" si="7"/>
         <v>15.875</v>
       </c>
-      <c r="Z36" s="19">
+      <c r="Z36" s="16">
         <f t="shared" si="8"/>
         <v>18.3</v>
       </c>
@@ -3754,100 +5722,100 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R37" s="19">
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S37" s="19">
+      <c r="S37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T37" s="19" t="e">
+      <c r="T37" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U37" s="19" t="e">
+      <c r="U37" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V37" s="19" t="e">
+      <c r="V37" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W37" s="19" t="e">
+      <c r="W37" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X37" s="19" t="e">
+      <c r="X37" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y37" s="19" t="e">
+      <c r="Y37" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z37" s="19" t="e">
+      <c r="Z37" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="38" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="38" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="26">
+      <c r="C38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S38" s="26">
+      <c r="S38" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T38" s="26" t="e">
+      <c r="T38" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U38" s="26" t="e">
+      <c r="U38" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V38" s="26" t="e">
+      <c r="V38" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W38" s="26" t="e">
+      <c r="W38" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X38" s="26" t="e">
+      <c r="X38" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y38" s="26" t="e">
+      <c r="Y38" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z38" s="26" t="e">
+      <c r="Z38" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3856,42 +5824,42 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R39" s="19">
+      <c r="C39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R39" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S39" s="19">
+      <c r="S39" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T39" s="19" t="e">
+      <c r="T39" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="19" t="e">
+      <c r="U39" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V39" s="19" t="e">
+      <c r="V39" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W39" s="19" t="e">
+      <c r="W39" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X39" s="19" t="e">
+      <c r="X39" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y39" s="19" t="e">
+      <c r="Y39" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z39" s="19" t="e">
+      <c r="Z39" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3900,42 +5868,42 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="R40" s="19">
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S40" s="19">
+      <c r="S40" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T40" s="19" t="e">
+      <c r="T40" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="19" t="e">
+      <c r="U40" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V40" s="19" t="e">
+      <c r="V40" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W40" s="19" t="e">
+      <c r="W40" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X40" s="19" t="e">
+      <c r="X40" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y40" s="19" t="e">
+      <c r="Y40" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z40" s="19" t="e">
+      <c r="Z40" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3944,42 +5912,42 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="R41" s="19">
+      <c r="C41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S41" s="19">
+      <c r="S41" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T41" s="19" t="e">
+      <c r="T41" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U41" s="19" t="e">
+      <c r="U41" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V41" s="19" t="e">
+      <c r="V41" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W41" s="19" t="e">
+      <c r="W41" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X41" s="19" t="e">
+      <c r="X41" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y41" s="19" t="e">
+      <c r="Y41" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z41" s="19" t="e">
+      <c r="Z41" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -3988,42 +5956,42 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R42" s="19">
+      <c r="C42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S42" s="19">
+      <c r="S42" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T42" s="19" t="e">
+      <c r="T42" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U42" s="19" t="e">
+      <c r="U42" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V42" s="19" t="e">
+      <c r="V42" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W42" s="19" t="e">
+      <c r="W42" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X42" s="19" t="e">
+      <c r="X42" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y42" s="19" t="e">
+      <c r="Y42" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z42" s="19" t="e">
+      <c r="Z42" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4032,100 +6000,100 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="R43" s="19">
+      <c r="C43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S43" s="19">
+      <c r="S43" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T43" s="19" t="e">
+      <c r="T43" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U43" s="19" t="e">
+      <c r="U43" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V43" s="19" t="e">
+      <c r="V43" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W43" s="19" t="e">
+      <c r="W43" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X43" s="19" t="e">
+      <c r="X43" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y43" s="19" t="e">
+      <c r="Y43" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z43" s="19" t="e">
+      <c r="Z43" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="44" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="26">
+      <c r="C44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S44" s="26">
+      <c r="S44" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T44" s="26" t="e">
+      <c r="T44" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U44" s="26" t="e">
+      <c r="U44" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V44" s="26" t="e">
+      <c r="V44" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W44" s="26" t="e">
+      <c r="W44" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X44" s="26" t="e">
+      <c r="X44" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y44" s="26" t="e">
+      <c r="Y44" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z44" s="26" t="e">
+      <c r="Z44" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4134,42 +6102,42 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R45" s="19">
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S45" s="19">
+      <c r="S45" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T45" s="19" t="e">
+      <c r="T45" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U45" s="19" t="e">
+      <c r="U45" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V45" s="19" t="e">
+      <c r="V45" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W45" s="19" t="e">
+      <c r="W45" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X45" s="19" t="e">
+      <c r="X45" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y45" s="19" t="e">
+      <c r="Y45" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z45" s="19" t="e">
+      <c r="Z45" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4178,42 +6146,42 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R46" s="19">
+      <c r="C46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S46" s="19">
+      <c r="S46" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T46" s="19" t="e">
+      <c r="T46" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U46" s="19" t="e">
+      <c r="U46" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V46" s="19" t="e">
+      <c r="V46" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W46" s="19" t="e">
+      <c r="W46" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X46" s="19" t="e">
+      <c r="X46" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y46" s="19" t="e">
+      <c r="Y46" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z46" s="19" t="e">
+      <c r="Z46" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4222,42 +6190,42 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R47" s="19">
+      <c r="C47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R47" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S47" s="19">
+      <c r="S47" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47" s="19" t="e">
+      <c r="T47" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U47" s="19" t="e">
+      <c r="U47" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V47" s="19" t="e">
+      <c r="V47" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W47" s="19" t="e">
+      <c r="W47" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X47" s="19" t="e">
+      <c r="X47" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y47" s="19" t="e">
+      <c r="Y47" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z47" s="19" t="e">
+      <c r="Z47" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4266,42 +6234,42 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="R48" s="19">
+      <c r="C48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S48" s="19">
+      <c r="S48" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T48" s="19" t="e">
+      <c r="T48" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U48" s="19" t="e">
+      <c r="U48" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V48" s="19" t="e">
+      <c r="V48" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W48" s="19" t="e">
+      <c r="W48" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X48" s="19" t="e">
+      <c r="X48" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y48" s="19" t="e">
+      <c r="Y48" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z48" s="19" t="e">
+      <c r="Z48" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4310,42 +6278,42 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R49" s="19">
+      <c r="C49" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R49" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S49" s="19">
+      <c r="S49" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T49" s="19" t="e">
+      <c r="T49" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U49" s="19" t="e">
+      <c r="U49" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V49" s="19" t="e">
+      <c r="V49" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W49" s="19" t="e">
+      <c r="W49" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X49" s="19" t="e">
+      <c r="X49" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y49" s="19" t="e">
+      <c r="Y49" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z49" s="19" t="e">
+      <c r="Z49" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4354,42 +6322,42 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="R50" s="19">
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R50" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S50" s="19">
+      <c r="S50" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T50" s="19" t="e">
+      <c r="T50" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U50" s="19" t="e">
+      <c r="U50" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V50" s="19" t="e">
+      <c r="V50" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W50" s="19" t="e">
+      <c r="W50" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X50" s="19" t="e">
+      <c r="X50" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y50" s="19" t="e">
+      <c r="Y50" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z50" s="19" t="e">
+      <c r="Z50" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4398,42 +6366,42 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="R51" s="19">
+      <c r="C51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R51" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S51" s="19">
+      <c r="S51" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T51" s="19" t="e">
+      <c r="T51" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U51" s="19" t="e">
+      <c r="U51" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V51" s="19" t="e">
+      <c r="V51" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W51" s="19" t="e">
+      <c r="W51" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X51" s="19" t="e">
+      <c r="X51" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y51" s="19" t="e">
+      <c r="Y51" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z51" s="19" t="e">
+      <c r="Z51" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4442,42 +6410,42 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R52" s="19">
+      <c r="C52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S52" s="19">
+      <c r="S52" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T52" s="19" t="e">
+      <c r="T52" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U52" s="19" t="e">
+      <c r="U52" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V52" s="19" t="e">
+      <c r="V52" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W52" s="19" t="e">
+      <c r="W52" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X52" s="19" t="e">
+      <c r="X52" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y52" s="19" t="e">
+      <c r="Y52" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z52" s="19" t="e">
+      <c r="Z52" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
@@ -4486,102 +6454,686 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R53" s="19">
+      <c r="C53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S53" s="19">
+      <c r="S53" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T53" s="19" t="e">
+      <c r="T53" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U53" s="19" t="e">
+      <c r="U53" s="16" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V53" s="19" t="e">
+      <c r="V53" s="16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W53" s="19" t="e">
+      <c r="W53" s="16" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X53" s="19" t="e">
+      <c r="X53" s="16" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y53" s="19" t="e">
+      <c r="Y53" s="16" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z53" s="19" t="e">
+      <c r="Z53" s="16" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="54" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="26">
+      <c r="C54" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S54" s="26">
+      <c r="S54" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T54" s="26" t="e">
+      <c r="T54" s="23" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U54" s="26" t="e">
+      <c r="U54" s="23" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="V54" s="26" t="e">
+      <c r="V54" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="W54" s="26" t="e">
+      <c r="W54" s="23" t="e">
         <f t="shared" si="5"/>
         <v>#NUM!</v>
       </c>
-      <c r="X54" s="26" t="e">
+      <c r="X54" s="23" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="Y54" s="26" t="e">
+      <c r="Y54" s="23" t="e">
         <f t="shared" si="7"/>
         <v>#NUM!</v>
       </c>
-      <c r="Z54" s="26" t="e">
+      <c r="Z54" s="23" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C1" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>366860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30">
+        <v>112870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="30">
+        <v>148190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30">
+        <v>364945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="30">
+        <v>293386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="30">
+        <v>550620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1203870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30">
+        <v>310830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="30">
+        <v>562477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="30">
+        <v>836711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="30">
+        <v>20110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="30">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="30">
+        <v>402641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="30">
+        <v>26190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="47">
+        <f>SUM(C2:C15)</f>
+        <v>5222100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33">
+        <v>366890</v>
+      </c>
+      <c r="E2" s="32">
+        <v>55.566175687500007</v>
+      </c>
+      <c r="F2" s="32">
+        <v>-4.609001654166665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="33">
+        <v>113150</v>
+      </c>
+      <c r="E3" s="32">
+        <v>55.60719344615385</v>
+      </c>
+      <c r="F3" s="32">
+        <v>-2.7004535461538461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="33">
+        <v>148060</v>
+      </c>
+      <c r="E4" s="32">
+        <v>55.027784740932674</v>
+      </c>
+      <c r="F4" s="32">
+        <v>-3.8202527512953344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33">
+        <v>367292</v>
+      </c>
+      <c r="E5" s="32">
+        <v>56.163072748344334</v>
+      </c>
+      <c r="F5" s="32">
+        <v>-3.2001611412803546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="33">
+        <v>295541</v>
+      </c>
+      <c r="E6" s="32">
+        <v>56.064990280323407</v>
+      </c>
+      <c r="F6" s="32">
+        <v>-3.8520161617250697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33">
+        <v>555280</v>
+      </c>
+      <c r="E7" s="32">
+        <v>57.306753697368443</v>
+      </c>
+      <c r="F7" s="32">
+        <v>-2.39230568859649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1210254</v>
+      </c>
+      <c r="E8" s="32">
+        <v>55.868988067209798</v>
+      </c>
+      <c r="F8" s="32">
+        <v>-4.3449574005431044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="33">
+        <v>311960</v>
+      </c>
+      <c r="E9" s="32">
+        <v>57.144289492753657</v>
+      </c>
+      <c r="F9" s="32">
+        <v>-4.5762839468599044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33">
+        <v>563185</v>
+      </c>
+      <c r="E10" s="32">
+        <v>55.802350703856774</v>
+      </c>
+      <c r="F10" s="32">
+        <v>-4.0026567245179079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="33">
+        <v>848727</v>
+      </c>
+      <c r="E11" s="32">
+        <v>55.926776633064541</v>
+      </c>
+      <c r="F11" s="32">
+        <v>-3.2422757217741895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="33">
+        <v>20160</v>
+      </c>
+      <c r="E12" s="32">
+        <v>59.000222259259267</v>
+      </c>
+      <c r="F12" s="32">
+        <v>-3.0264093703703705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="33">
+        <v>22500</v>
+      </c>
+      <c r="E13" s="32">
+        <v>60.220431733333349</v>
+      </c>
+      <c r="F13" s="32">
+        <v>-1.2161150666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="33">
+        <v>405721</v>
+      </c>
+      <c r="E14" s="32">
+        <v>56.496416473790269</v>
+      </c>
+      <c r="F14" s="32">
+        <v>-3.0871150322580667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="34">
+        <v>26080</v>
+      </c>
+      <c r="E15" s="32">
+        <v>57.991980777777776</v>
+      </c>
+      <c r="F15" s="32">
+        <v>-6.6767360833333322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/sds2011.xlsx
+++ b/sds2011.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="10980" windowHeight="4725"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="24160" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
     <sheet name="fact" sheetId="14" r:id="rId2"/>
-    <sheet name="summarymatrix" sheetId="11" r:id="rId3"/>
+    <sheet name="summary" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fact!$A$1:$C$127</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="125">
   <si>
     <t>metric</t>
   </si>
@@ -392,19 +396,22 @@
   </si>
   <si>
     <t>q0</t>
+  </si>
+  <si>
+    <t>Scotland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +440,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -442,7 +465,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -455,14 +478,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -471,44 +494,83 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,12 +602,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -580,9 +636,28 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,29 +954,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -913,504 +988,538 @@
       <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>2221</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="33">
         <v>17919</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="33">
         <v>35</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <f>SUM(D2:F2)</f>
         <v>20175</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="35">
         <v>366860</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="18">
         <v>55.566175687500007</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="28">
         <v>-4.609001654166665</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="33">
         <v>614</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>4846</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="33">
         <v>33</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="34">
         <f t="shared" ref="G3:G15" si="0">SUM(D3:F3)</f>
         <v>5493</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <v>112870</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <v>55.60719344615385</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="28">
         <v>-2.7004535461538461</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="33">
         <v>893</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>7236</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>39</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="34">
         <f t="shared" si="0"/>
         <v>8168</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="35">
         <v>148190</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <v>55.027784740932674</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="28">
         <v>-3.8202527512953344</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>1969</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>16164</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>59</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <f t="shared" si="0"/>
         <v>18192</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="35">
         <v>364945</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>56.163072748344334</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="28">
         <v>-3.2001611412803546</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="33">
         <v>1606</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>12528</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>67</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <f t="shared" si="0"/>
         <v>14201</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="35">
         <v>293386</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>56.064990280323407</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="28">
         <v>-3.8520161617250697</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>3053</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>20902</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>85</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
         <v>24040</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="35">
         <v>550620</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>57.306753697368443</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="28">
         <v>-2.39230568859649</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>6180</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>50005</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>527</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>56712</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="35">
         <v>1203870</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>55.868988067209798</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="28">
         <v>-4.3449574005431044</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>1758</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>12479</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>128</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
         <v>14365</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <v>310830</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>57.144289492753657</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <v>-4.5762839468599044</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>3513</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <v>24998</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>118</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <f t="shared" si="0"/>
         <v>28629</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="35">
         <v>562477</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>55.802350703856774</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="28">
         <v>-4.0026567245179079</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>4175</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <v>29551</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>298</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <f t="shared" si="0"/>
         <v>34024</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="35">
         <v>836711</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <v>55.926776633064541</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="28">
         <v>-3.2422757217741895</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>120</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>853</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <f t="shared" si="0"/>
         <v>973</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="35">
         <v>20110</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <v>59.000222259259267</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="28">
         <v>-3.0264093703703705</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>124</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>871</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>4</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>22400</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <v>60.220431733333349</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="28">
         <v>-1.2161150666666667</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>1864</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="33">
         <v>18104</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>98</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <f t="shared" si="0"/>
         <v>20066</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="35">
         <v>402641</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>56.496416473790269</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="28">
         <v>-3.0871150322580667</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>182</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="36">
         <v>1058</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <v>1</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="37">
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="38">
         <v>26190</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <v>57.991980777777776</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="29">
         <v>-6.6767360833333322</v>
       </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="42">
+        <f t="shared" ref="D16:H16" si="1">SUM(D2:D15)</f>
+        <v>28272</v>
+      </c>
+      <c r="E16" s="42">
+        <f t="shared" si="1"/>
+        <v>217514</v>
+      </c>
+      <c r="F16" s="42">
+        <f t="shared" si="1"/>
+        <v>1492</v>
+      </c>
+      <c r="G16" s="44">
+        <f t="shared" si="1"/>
+        <v>247278</v>
+      </c>
+      <c r="H16" s="42">
+        <f t="shared" si="1"/>
+        <v>5222100</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="45.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -1420,16 +1529,16 @@
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1440,7 +1549,7 @@
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1451,7 +1560,7 @@
       <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1462,7 +1571,7 @@
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1473,7 +1582,7 @@
       <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1484,7 +1593,7 @@
       <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1495,7 +1604,7 @@
       <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1506,7 +1615,7 @@
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1517,7 +1626,7 @@
       <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1528,7 +1637,7 @@
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1539,7 +1648,7 @@
       <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1550,7 +1659,7 @@
       <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1561,7 +1670,7 @@
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1572,20 +1681,22 @@
       <c r="B14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="24" t="s">
         <v>98</v>
       </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
@@ -1594,563 +1705,570 @@
       <c r="B16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" s="2" customFormat="1">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="32"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="32"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" s="30"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" s="30"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="32"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="32"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="32"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="32"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="32"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="32"/>
+      <c r="C38" s="30"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="32"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="32"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="32"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="32"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="32"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="32"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="32"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="32"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="32"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="32"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="32"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="32"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="32"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="32"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="32"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="32"/>
+      <c r="C54" s="30"/>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="32"/>
+      <c r="C55" s="30"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="32"/>
+      <c r="C56" s="30"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="32"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="32"/>
+      <c r="C58" s="30"/>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="32"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="32"/>
+      <c r="C60" s="30"/>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="32"/>
+      <c r="C61" s="30"/>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="32"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="32"/>
+      <c r="C63" s="30"/>
     </row>
     <row r="64" spans="3:4">
-      <c r="C64" s="32"/>
+      <c r="C64" s="30"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="32"/>
+      <c r="C65" s="30"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="32"/>
+      <c r="C66" s="30"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="32"/>
+      <c r="C67" s="30"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="32"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="32"/>
+      <c r="C69" s="30"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="32"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="32"/>
+      <c r="C71" s="30"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="32"/>
+      <c r="C72" s="30"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="32"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="32"/>
+      <c r="C74" s="30"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="32"/>
+      <c r="C75" s="30"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="32"/>
+      <c r="C76" s="30"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="32"/>
+      <c r="C77" s="30"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="32"/>
+      <c r="C78" s="30"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="32"/>
+      <c r="C79" s="30"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="32"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="C81" s="32"/>
+      <c r="C81" s="30"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="C82" s="32"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="C83" s="32"/>
+      <c r="C83" s="30"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="C84" s="32"/>
+      <c r="C84" s="30"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="C85" s="32"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="15"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="33"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="31"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="15"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="33"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="31"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="15"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="33"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="31"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="15"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="33"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="31"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="15"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="33"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="15"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="33"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="31"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="15"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="33"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="31"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="15"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="33"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="31"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="15"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="33"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="31"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="15"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="33"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="31"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="15"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="33"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="31"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="15"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="33"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="31"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="15"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="33"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="31"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="15"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="33"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="31"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="15"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="33"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="31"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="15"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="33"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="31"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="15"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="33"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="31"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="15"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="33"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="31"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="15"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="33"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="31"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="15"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="33"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="31"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="15"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="33"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="31"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="15"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="31"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="15"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="33"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="31"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="15"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="33"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="31"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="15"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="33"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="31"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="15"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="33"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="31"/>
     </row>
     <row r="112" spans="2:5">
-      <c r="B112" s="15"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="33"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="31"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="15"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="33"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="31"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="C114" s="32"/>
+      <c r="C114" s="30"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="C115" s="32"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="C116" s="32"/>
+      <c r="C116" s="30"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="C117" s="32"/>
+      <c r="C117" s="30"/>
     </row>
     <row r="118" spans="2:5">
-      <c r="C118" s="32"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119" spans="2:5">
-      <c r="C119" s="32"/>
+      <c r="C119" s="30"/>
     </row>
     <row r="120" spans="2:5">
-      <c r="C120" s="32"/>
+      <c r="C120" s="30"/>
     </row>
     <row r="121" spans="2:5">
-      <c r="C121" s="32"/>
+      <c r="C121" s="30"/>
     </row>
     <row r="122" spans="2:5">
-      <c r="C122" s="32"/>
+      <c r="C122" s="30"/>
     </row>
     <row r="123" spans="2:5">
-      <c r="C123" s="32"/>
+      <c r="C123" s="30"/>
     </row>
     <row r="124" spans="2:5">
-      <c r="C124" s="32"/>
+      <c r="C124" s="30"/>
     </row>
     <row r="125" spans="2:5">
-      <c r="C125" s="32"/>
+      <c r="C125" s="30"/>
     </row>
     <row r="126" spans="2:5">
-      <c r="C126" s="32"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127" spans="2:5">
-      <c r="C127" s="32"/>
+      <c r="C127" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="126" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="12.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="6" customWidth="1"/>
-    <col min="17" max="25" width="12.42578125" style="12" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="56.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="12.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="6" customWidth="1"/>
+    <col min="17" max="25" width="12.5" style="12" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1">
@@ -2269,7 +2387,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -2299,7 +2417,75 @@
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+      <c r="J4">
+        <v>0.6</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.6</v>
+      </c>
+      <c r="N4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.7</v>
+      </c>
+      <c r="S4">
+        <v>0.6</v>
+      </c>
+      <c r="T4">
+        <v>0.6</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.6</v>
+      </c>
+      <c r="X4">
+        <v>0.6</v>
+      </c>
+      <c r="Y4">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="4">
@@ -2308,20 +2494,75 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
+      <c r="C5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D5">
+        <v>4.3</v>
+      </c>
+      <c r="E5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G5">
+        <v>4.3</v>
+      </c>
+      <c r="H5">
+        <v>4.2</v>
+      </c>
+      <c r="I5">
+        <v>3.8</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>4.2</v>
+      </c>
+      <c r="N5">
+        <v>3.9</v>
+      </c>
+      <c r="O5">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="49">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>3.5</v>
+      </c>
+      <c r="R5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S5">
+        <v>4.2</v>
+      </c>
+      <c r="T5">
+        <v>4.3</v>
+      </c>
+      <c r="U5">
+        <v>3.5</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>4.3</v>
+      </c>
+      <c r="X5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y5">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="4">
@@ -2330,16 +2571,106 @@
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="4">
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.6</v>
+      </c>
+      <c r="F6">
+        <v>0.7</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>1.9</v>
+      </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>1.3</v>
+      </c>
+      <c r="N6">
+        <v>1.9</v>
+      </c>
+      <c r="O6">
+        <v>0.9</v>
+      </c>
+      <c r="P6" s="49">
+        <v>2.7</v>
+      </c>
+      <c r="Q6">
+        <v>0.7</v>
+      </c>
+      <c r="R6">
+        <v>2.7</v>
+      </c>
+      <c r="S6">
+        <v>1.2</v>
+      </c>
+      <c r="T6">
+        <v>0.9</v>
+      </c>
+      <c r="U6">
+        <v>0.7</v>
+      </c>
+      <c r="V6">
+        <v>0.8</v>
+      </c>
+      <c r="W6">
+        <v>0.9</v>
+      </c>
+      <c r="X6">
+        <v>1.5</v>
+      </c>
+      <c r="Y6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="4">
@@ -2348,7 +2679,7 @@
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="4">
@@ -2357,7 +2688,7 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="4">
@@ -2366,7 +2697,7 @@
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4">
@@ -2375,7 +2706,7 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="4">
@@ -2384,7 +2715,7 @@
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="4">
@@ -2393,7 +2724,7 @@
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="4">
@@ -2402,7 +2733,7 @@
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="4">
@@ -2411,7 +2742,7 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="4">
@@ -2420,9 +2751,9 @@
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2430,7 +2761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2438,7 +2769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2446,7 +2777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2454,7 +2785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2462,7 +2793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2470,7 +2801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2478,7 +2809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2486,7 +2817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2494,7 +2825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2502,7 +2833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2510,7 +2841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2518,7 +2849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2526,7 +2857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2534,23 +2865,161 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>25.4</v>
+      </c>
+      <c r="D31">
+        <v>29.6</v>
+      </c>
+      <c r="E31">
+        <v>27.7</v>
+      </c>
+      <c r="F31">
+        <v>25.9</v>
+      </c>
+      <c r="G31">
+        <v>23.4</v>
+      </c>
+      <c r="H31">
+        <v>22.5</v>
+      </c>
+      <c r="I31">
+        <v>23.1</v>
+      </c>
+      <c r="J31">
+        <v>25.1</v>
+      </c>
+      <c r="K31">
+        <v>26.4</v>
+      </c>
+      <c r="L31">
+        <v>23.2</v>
+      </c>
+      <c r="M31">
+        <v>29.1</v>
+      </c>
+      <c r="N31">
+        <v>32.1</v>
+      </c>
+      <c r="O31">
+        <v>23.3</v>
+      </c>
+      <c r="P31" s="49">
+        <v>24.2</v>
+      </c>
+      <c r="Q31">
+        <v>22.5</v>
+      </c>
+      <c r="R31">
+        <v>32.1</v>
+      </c>
+      <c r="S31">
+        <v>25.8</v>
+      </c>
+      <c r="T31">
+        <v>25.3</v>
+      </c>
+      <c r="U31">
+        <v>22.5</v>
+      </c>
+      <c r="V31">
+        <v>23.3</v>
+      </c>
+      <c r="W31">
+        <v>25.3</v>
+      </c>
+      <c r="X31">
+        <v>27.4</v>
+      </c>
+      <c r="Y31">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>54.8</v>
+      </c>
+      <c r="D32">
+        <v>55.6</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>58.7</v>
+      </c>
+      <c r="G32">
+        <v>57.4</v>
+      </c>
+      <c r="H32">
+        <v>54.7</v>
+      </c>
+      <c r="I32">
+        <v>53.1</v>
+      </c>
+      <c r="J32">
+        <v>55.2</v>
+      </c>
+      <c r="K32">
+        <v>56.7</v>
+      </c>
+      <c r="L32">
+        <v>56</v>
+      </c>
+      <c r="M32">
+        <v>60.3</v>
+      </c>
+      <c r="N32">
+        <v>60.9</v>
+      </c>
+      <c r="O32">
+        <v>55.5</v>
+      </c>
+      <c r="P32" s="49">
+        <v>57.5</v>
+      </c>
+      <c r="Q32">
+        <v>53.1</v>
+      </c>
+      <c r="R32">
+        <v>60.9</v>
+      </c>
+      <c r="S32">
+        <v>56.5</v>
+      </c>
+      <c r="T32">
+        <v>55.8</v>
+      </c>
+      <c r="U32">
+        <v>53.1</v>
+      </c>
+      <c r="V32">
+        <v>55.1</v>
+      </c>
+      <c r="W32">
+        <v>55.8</v>
+      </c>
+      <c r="X32">
+        <v>57.5</v>
+      </c>
+      <c r="Y32">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2558,7 +3027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2566,23 +3035,161 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>37.6</v>
+      </c>
+      <c r="D35">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E35">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>37.9</v>
+      </c>
+      <c r="G35">
+        <v>40.9</v>
+      </c>
+      <c r="H35">
+        <v>46.9</v>
+      </c>
+      <c r="I35">
+        <v>35.6</v>
+      </c>
+      <c r="J35">
+        <v>36.4</v>
+      </c>
+      <c r="K35">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="L35">
+        <v>31.1</v>
+      </c>
+      <c r="M35">
+        <v>33.6</v>
+      </c>
+      <c r="N35">
+        <v>26.7</v>
+      </c>
+      <c r="O35">
+        <v>43.6</v>
+      </c>
+      <c r="P35" s="49">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>26.7</v>
+      </c>
+      <c r="R35">
+        <v>46.9</v>
+      </c>
+      <c r="S35">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="T35">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="U35">
+        <v>26.7</v>
+      </c>
+      <c r="V35">
+        <v>33.9</v>
+      </c>
+      <c r="W35">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="X35">
+        <v>39.5</v>
+      </c>
+      <c r="Y35">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>13.4</v>
+      </c>
+      <c r="D36">
+        <v>11.5</v>
+      </c>
+      <c r="E36">
+        <v>12.2</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>14.3</v>
+      </c>
+      <c r="H36">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I36">
+        <v>16.2</v>
+      </c>
+      <c r="J36">
+        <v>14.9</v>
+      </c>
+      <c r="K36">
+        <v>14.7</v>
+      </c>
+      <c r="L36">
+        <v>12.7</v>
+      </c>
+      <c r="M36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N36">
+        <v>14.4</v>
+      </c>
+      <c r="O36">
+        <v>14.8</v>
+      </c>
+      <c r="P36" s="49">
+        <v>18.3</v>
+      </c>
+      <c r="Q36">
+        <v>11.5</v>
+      </c>
+      <c r="R36">
+        <v>18.3</v>
+      </c>
+      <c r="S36">
+        <v>14.6</v>
+      </c>
+      <c r="T36">
+        <v>14.6</v>
+      </c>
+      <c r="U36">
+        <v>11.5</v>
+      </c>
+      <c r="V36">
+        <v>13.1</v>
+      </c>
+      <c r="W36">
+        <v>14.6</v>
+      </c>
+      <c r="X36">
+        <v>15.9</v>
+      </c>
+      <c r="Y36">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2590,7 +3197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2598,7 +3205,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2606,7 +3213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2614,7 +3221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2622,7 +3229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2630,7 +3237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2638,7 +3245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2646,7 +3253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2654,7 +3261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2662,7 +3269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2670,7 +3277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2728,6 +3335,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="126" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/sds2011.xlsx
+++ b/sds2011.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="24160" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="10980" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
     <sheet name="fact" sheetId="14" r:id="rId2"/>
-    <sheet name="summary" sheetId="11" r:id="rId3"/>
+    <sheet name="summarymatrix" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fact!$A$1:$C$127</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
   <si>
     <t>metric</t>
   </si>
@@ -399,19 +394,22 @@
   </si>
   <si>
     <t>Scotland</t>
+  </si>
+  <si>
+    <t>prevalence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,22 +438,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -465,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -478,14 +460,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -494,33 +476,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -528,14 +510,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,34 +525,59 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +609,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -652,13 +665,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,29 +970,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -988,522 +1005,580 @@
       <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="35">
         <v>2221</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="35">
         <v>17919</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="35">
         <v>35</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="36">
         <f>SUM(D2:F2)</f>
         <v>20175</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="37">
         <v>366860</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="52">
+        <f>G2/H2</f>
+        <v>5.4993730578422287E-2</v>
+      </c>
+      <c r="J2" s="20">
         <v>55.566175687500007</v>
       </c>
-      <c r="J2" s="28">
+      <c r="K2" s="30">
         <v>-4.609001654166665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="35">
         <v>614</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="35">
         <v>4846</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="35">
         <v>33</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="36">
         <f t="shared" ref="G3:G15" si="0">SUM(D3:F3)</f>
         <v>5493</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="37">
         <v>112870</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="52">
+        <f t="shared" ref="I3:I16" si="1">G3/H3</f>
+        <v>4.8666607601665635E-2</v>
+      </c>
+      <c r="J3" s="20">
         <v>55.60719344615385</v>
       </c>
-      <c r="J3" s="28">
+      <c r="K3" s="30">
         <v>-2.7004535461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="35">
         <v>893</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="35">
         <v>7236</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="35">
         <v>39</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="36">
         <f t="shared" si="0"/>
         <v>8168</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="37">
         <v>148190</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="52">
+        <f t="shared" si="1"/>
+        <v>5.5118429043795131E-2</v>
+      </c>
+      <c r="J4" s="20">
         <v>55.027784740932674</v>
       </c>
-      <c r="J4" s="28">
+      <c r="K4" s="30">
         <v>-3.8202527512953344</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="35">
         <v>1969</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="35">
         <v>16164</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="35">
         <v>59</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="36">
         <f t="shared" si="0"/>
         <v>18192</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="37">
         <v>364945</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="52">
+        <f t="shared" si="1"/>
+        <v>4.9848607324391343E-2</v>
+      </c>
+      <c r="J5" s="20">
         <v>56.163072748344334</v>
       </c>
-      <c r="J5" s="28">
+      <c r="K5" s="30">
         <v>-3.2001611412803546</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="35">
         <v>1606</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="35">
         <v>12528</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="35">
         <v>67</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="36">
         <f t="shared" si="0"/>
         <v>14201</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="37">
         <v>293386</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="52">
+        <f t="shared" si="1"/>
+        <v>4.8403809316054619E-2</v>
+      </c>
+      <c r="J6" s="20">
         <v>56.064990280323407</v>
       </c>
-      <c r="J6" s="28">
+      <c r="K6" s="30">
         <v>-3.8520161617250697</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="35">
         <v>3053</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="35">
         <v>20902</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="35">
         <v>85</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="36">
         <f t="shared" si="0"/>
         <v>24040</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="37">
         <v>550620</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="52">
+        <f t="shared" si="1"/>
+        <v>4.3659874323489882E-2</v>
+      </c>
+      <c r="J7" s="20">
         <v>57.306753697368443</v>
       </c>
-      <c r="J7" s="28">
+      <c r="K7" s="30">
         <v>-2.39230568859649</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="35">
         <v>6180</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="35">
         <v>50005</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="35">
         <v>527</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="36">
         <f t="shared" si="0"/>
         <v>56712</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="37">
         <v>1203870</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="52">
+        <f t="shared" si="1"/>
+        <v>4.7108076453437661E-2</v>
+      </c>
+      <c r="J8" s="20">
         <v>55.868988067209798</v>
       </c>
-      <c r="J8" s="28">
+      <c r="K8" s="30">
         <v>-4.3449574005431044</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="35">
         <v>1758</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="35">
         <v>12479</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="35">
         <v>128</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="36">
         <f t="shared" si="0"/>
         <v>14365</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="37">
         <v>310830</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="52">
+        <f t="shared" si="1"/>
+        <v>4.6214972814721873E-2</v>
+      </c>
+      <c r="J9" s="20">
         <v>57.144289492753657</v>
       </c>
-      <c r="J9" s="28">
+      <c r="K9" s="30">
         <v>-4.5762839468599044</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="35">
         <v>3513</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="35">
         <v>24998</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="35">
         <v>118</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="36">
         <f t="shared" si="0"/>
         <v>28629</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="37">
         <v>562477</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="52">
+        <f t="shared" si="1"/>
+        <v>5.0898081165985452E-2</v>
+      </c>
+      <c r="J10" s="20">
         <v>55.802350703856774</v>
       </c>
-      <c r="J10" s="28">
+      <c r="K10" s="30">
         <v>-4.0026567245179079</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="35">
         <v>4175</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="35">
         <v>29551</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="35">
         <v>298</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
         <v>34024</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="37">
         <v>836711</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="52">
+        <f t="shared" si="1"/>
+        <v>4.0663980753211086E-2</v>
+      </c>
+      <c r="J11" s="20">
         <v>55.926776633064541</v>
       </c>
-      <c r="J11" s="28">
+      <c r="K11" s="30">
         <v>-3.2422757217741895</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="35">
         <v>120</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="35">
         <v>853</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="35">
         <v>0</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="36">
         <f t="shared" si="0"/>
         <v>973</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="37">
         <v>20110</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="52">
+        <f t="shared" si="1"/>
+        <v>4.838388861263053E-2</v>
+      </c>
+      <c r="J12" s="20">
         <v>59.000222259259267</v>
       </c>
-      <c r="J12" s="28">
+      <c r="K12" s="30">
         <v>-3.0264093703703705</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="35">
         <v>124</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="35">
         <v>871</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="35">
         <v>4</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="36">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="37">
         <v>22400</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="52">
+        <f t="shared" si="1"/>
+        <v>4.4598214285714283E-2</v>
+      </c>
+      <c r="J13" s="20">
         <v>60.220431733333349</v>
       </c>
-      <c r="J13" s="28">
+      <c r="K13" s="30">
         <v>-1.2161150666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="35">
         <v>1864</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="35">
         <v>18104</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="35">
         <v>98</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="36">
         <f t="shared" si="0"/>
         <v>20066</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="37">
         <v>402641</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="52">
+        <f t="shared" si="1"/>
+        <v>4.983595808673235E-2</v>
+      </c>
+      <c r="J14" s="20">
         <v>56.496416473790269</v>
       </c>
-      <c r="J14" s="28">
+      <c r="K14" s="30">
         <v>-3.0871150322580667</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="38">
         <v>182</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="38">
         <v>1058</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="38">
         <v>1</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="39">
         <f t="shared" si="0"/>
         <v>1241</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="40">
         <v>26190</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="53">
+        <f t="shared" si="1"/>
+        <v>4.7384497899961818E-2</v>
+      </c>
+      <c r="J15" s="27">
         <v>57.991980777777776</v>
       </c>
-      <c r="J15" s="29">
+      <c r="K15" s="31">
         <v>-6.6767360833333322</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="42">
-        <f t="shared" ref="D16:H16" si="1">SUM(D2:D15)</f>
+      <c r="D16" s="44">
+        <f t="shared" ref="D16:H16" si="2">SUM(D2:D15)</f>
         <v>28272</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="44">
+        <f t="shared" si="2"/>
+        <v>217514</v>
+      </c>
+      <c r="F16" s="44">
+        <f t="shared" si="2"/>
+        <v>1492</v>
+      </c>
+      <c r="G16" s="46">
+        <f t="shared" si="2"/>
+        <v>247278</v>
+      </c>
+      <c r="H16" s="55">
+        <f t="shared" si="2"/>
+        <v>5222100</v>
+      </c>
+      <c r="I16" s="54">
         <f t="shared" si="1"/>
-        <v>217514</v>
-      </c>
-      <c r="F16" s="42">
-        <f t="shared" si="1"/>
-        <v>1492</v>
-      </c>
-      <c r="G16" s="44">
-        <f t="shared" si="1"/>
-        <v>247278</v>
-      </c>
-      <c r="H16" s="42">
-        <f t="shared" si="1"/>
-        <v>5222100</v>
-      </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="43"/>
+        <v>4.7352214626299766E-2</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1511,15 +1586,15 @@
       <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="9.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -1529,16 +1604,16 @@
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="21" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1549,7 +1624,7 @@
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1560,7 +1635,7 @@
       <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1571,7 +1646,7 @@
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1582,7 +1657,7 @@
       <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="32" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1593,7 +1668,7 @@
       <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1604,7 +1679,7 @@
       <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1615,7 +1690,7 @@
       <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1626,7 +1701,7 @@
       <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="32" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1637,7 +1712,7 @@
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1648,7 +1723,7 @@
       <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1659,7 +1734,7 @@
       <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="32" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1670,7 +1745,7 @@
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="32" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1681,7 +1756,7 @@
       <c r="B14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="32" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1692,11 +1767,11 @@
       <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
@@ -1705,7 +1780,7 @@
       <c r="B16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="32" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1716,7 +1791,7 @@
       <c r="B17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="32" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1727,7 +1802,7 @@
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="32" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1738,7 +1813,7 @@
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="32" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1749,7 +1824,7 @@
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="32" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1760,7 +1835,7 @@
       <c r="B21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1771,7 +1846,7 @@
       <c r="B22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="32" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1782,7 +1857,7 @@
       <c r="B23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="32" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1793,7 +1868,7 @@
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="32" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1804,7 +1879,7 @@
       <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="32" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1815,7 +1890,7 @@
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="32" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1826,7 +1901,7 @@
       <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="32" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1837,7 +1912,7 @@
       <c r="B28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="32" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1848,427 +1923,422 @@
       <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="C30" s="30"/>
+      <c r="C30" s="32"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="C31" s="30"/>
+      <c r="C31" s="32"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="C32" s="30"/>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="30"/>
+      <c r="C33" s="32"/>
     </row>
     <row r="34" spans="3:4">
-      <c r="C34" s="30"/>
+      <c r="C34" s="32"/>
     </row>
     <row r="35" spans="3:4">
-      <c r="C35" s="30"/>
+      <c r="C35" s="32"/>
     </row>
     <row r="36" spans="3:4">
-      <c r="C36" s="30"/>
+      <c r="C36" s="32"/>
     </row>
     <row r="37" spans="3:4">
-      <c r="C37" s="30"/>
+      <c r="C37" s="32"/>
     </row>
     <row r="38" spans="3:4">
-      <c r="C38" s="30"/>
+      <c r="C38" s="32"/>
     </row>
     <row r="39" spans="3:4">
-      <c r="C39" s="30"/>
+      <c r="C39" s="32"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="30"/>
+      <c r="C40" s="32"/>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="30"/>
+      <c r="C41" s="32"/>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="30"/>
+      <c r="C42" s="32"/>
     </row>
     <row r="43" spans="3:4">
-      <c r="C43" s="30"/>
+      <c r="C43" s="32"/>
     </row>
     <row r="44" spans="3:4">
-      <c r="C44" s="30"/>
-      <c r="D44" s="13"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="3:4">
-      <c r="C45" s="30"/>
-      <c r="D45" s="13"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46" spans="3:4">
-      <c r="C46" s="30"/>
-      <c r="D46" s="13"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="30"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="3:4">
-      <c r="C48" s="30"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="30"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="3:4">
-      <c r="C50" s="30"/>
+      <c r="C50" s="32"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="30"/>
+      <c r="C51" s="32"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="30"/>
+      <c r="C52" s="32"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="30"/>
+      <c r="C53" s="32"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="30"/>
+      <c r="C54" s="32"/>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="30"/>
+      <c r="C55" s="32"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="30"/>
+      <c r="C56" s="32"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="30"/>
+      <c r="C57" s="32"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="30"/>
+      <c r="C58" s="32"/>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="30"/>
+      <c r="C59" s="32"/>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="30"/>
+      <c r="C60" s="32"/>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="30"/>
+      <c r="C61" s="32"/>
     </row>
     <row r="62" spans="3:4">
-      <c r="C62" s="30"/>
+      <c r="C62" s="32"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="30"/>
+      <c r="C63" s="32"/>
     </row>
     <row r="64" spans="3:4">
-      <c r="C64" s="30"/>
+      <c r="C64" s="32"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="30"/>
+      <c r="C65" s="32"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="30"/>
+      <c r="C66" s="32"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="30"/>
+      <c r="C67" s="32"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="30"/>
+      <c r="C68" s="32"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="30"/>
+      <c r="C69" s="32"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="30"/>
+      <c r="C70" s="32"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="30"/>
+      <c r="C71" s="32"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="30"/>
+      <c r="C72" s="32"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="30"/>
+      <c r="C73" s="32"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="30"/>
+      <c r="C74" s="32"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="30"/>
+      <c r="C75" s="32"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="30"/>
+      <c r="C76" s="32"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="30"/>
+      <c r="C77" s="32"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="30"/>
+      <c r="C78" s="32"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="30"/>
+      <c r="C79" s="32"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="30"/>
+      <c r="C80" s="32"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="C81" s="30"/>
+      <c r="C81" s="32"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="C82" s="30"/>
+      <c r="C82" s="32"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="C83" s="30"/>
+      <c r="C83" s="32"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="C84" s="30"/>
+      <c r="C84" s="32"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="C85" s="30"/>
+      <c r="C85" s="32"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="13"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="31"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="33"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="13"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="31"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="33"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="13"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="31"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="33"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="13"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="31"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="33"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="13"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="31"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="33"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="13"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="31"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="33"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="13"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="31"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="33"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="13"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="31"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="33"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="13"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="31"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="33"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="13"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="31"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="33"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="13"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="31"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="33"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="13"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="31"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="33"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="13"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="31"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="33"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="13"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="31"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="33"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="13"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="31"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="33"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="13"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="31"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="33"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="13"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="31"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="33"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="13"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="31"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="33"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="13"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="31"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="33"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="13"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="31"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="33"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="13"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="31"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="33"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="13"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="31"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="13"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="31"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="33"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="13"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="31"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="33"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="13"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="31"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="33"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="13"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="31"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="33"/>
     </row>
     <row r="112" spans="2:5">
-      <c r="B112" s="13"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="31"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="33"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="13"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="31"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="33"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="C114" s="30"/>
+      <c r="C114" s="32"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="C115" s="30"/>
+      <c r="C115" s="32"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="C116" s="30"/>
+      <c r="C116" s="32"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="C117" s="30"/>
+      <c r="C117" s="32"/>
     </row>
     <row r="118" spans="2:5">
-      <c r="C118" s="30"/>
+      <c r="C118" s="32"/>
     </row>
     <row r="119" spans="2:5">
-      <c r="C119" s="30"/>
+      <c r="C119" s="32"/>
     </row>
     <row r="120" spans="2:5">
-      <c r="C120" s="30"/>
+      <c r="C120" s="32"/>
     </row>
     <row r="121" spans="2:5">
-      <c r="C121" s="30"/>
+      <c r="C121" s="32"/>
     </row>
     <row r="122" spans="2:5">
-      <c r="C122" s="30"/>
+      <c r="C122" s="32"/>
     </row>
     <row r="123" spans="2:5">
-      <c r="C123" s="30"/>
+      <c r="C123" s="32"/>
     </row>
     <row r="124" spans="2:5">
-      <c r="C124" s="30"/>
+      <c r="C124" s="32"/>
     </row>
     <row r="125" spans="2:5">
-      <c r="C125" s="30"/>
+      <c r="C125" s="32"/>
     </row>
     <row r="126" spans="2:5">
-      <c r="C126" s="30"/>
+      <c r="C126" s="32"/>
     </row>
     <row r="127" spans="2:5">
-      <c r="C127" s="30"/>
+      <c r="C127" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="126" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="12.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="6" customWidth="1"/>
-    <col min="17" max="25" width="12.5" style="12" customWidth="1"/>
-    <col min="26" max="16384" width="8.83203125" style="4"/>
+    <col min="2" max="2" width="56.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="12.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="6" customWidth="1"/>
+    <col min="17" max="25" width="12.42578125" style="12" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1">
@@ -2387,7 +2457,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -2417,75 +2487,7 @@
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>0.6</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0.6</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.6</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0.6</v>
-      </c>
-      <c r="J4">
-        <v>0.6</v>
-      </c>
-      <c r="K4">
-        <v>0.6</v>
-      </c>
-      <c r="L4">
-        <v>0.5</v>
-      </c>
-      <c r="M4">
-        <v>0.6</v>
-      </c>
-      <c r="N4">
-        <v>0.6</v>
-      </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="P4" s="49">
-        <v>0.7</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>0.7</v>
-      </c>
-      <c r="S4">
-        <v>0.6</v>
-      </c>
-      <c r="T4">
-        <v>0.6</v>
-      </c>
-      <c r="U4">
-        <v>0.5</v>
-      </c>
-      <c r="V4">
-        <v>0.5</v>
-      </c>
-      <c r="W4">
-        <v>0.6</v>
-      </c>
-      <c r="X4">
-        <v>0.6</v>
-      </c>
-      <c r="Y4">
-        <v>0.7</v>
-      </c>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="4">
@@ -2494,75 +2496,20 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D5">
-        <v>4.3</v>
-      </c>
-      <c r="E5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G5">
-        <v>4.3</v>
-      </c>
-      <c r="H5">
-        <v>4.2</v>
-      </c>
-      <c r="I5">
-        <v>3.8</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L5">
-        <v>3.5</v>
-      </c>
-      <c r="M5">
-        <v>4.2</v>
-      </c>
-      <c r="N5">
-        <v>3.9</v>
-      </c>
-      <c r="O5">
-        <v>4.5</v>
-      </c>
-      <c r="P5" s="49">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>3.5</v>
-      </c>
-      <c r="R5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="S5">
-        <v>4.2</v>
-      </c>
-      <c r="T5">
-        <v>4.3</v>
-      </c>
-      <c r="U5">
-        <v>3.5</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>4.3</v>
-      </c>
-      <c r="X5">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Y5">
-        <v>4.9000000000000004</v>
-      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="4">
@@ -2571,75 +2518,7 @@
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>0.9</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1.6</v>
-      </c>
-      <c r="F6">
-        <v>0.7</v>
-      </c>
-      <c r="G6">
-        <v>0.7</v>
-      </c>
-      <c r="H6">
-        <v>0.8</v>
-      </c>
-      <c r="I6">
-        <v>0.9</v>
-      </c>
-      <c r="J6">
-        <v>1.9</v>
-      </c>
-      <c r="K6">
-        <v>0.8</v>
-      </c>
-      <c r="L6">
-        <v>0.9</v>
-      </c>
-      <c r="M6">
-        <v>1.3</v>
-      </c>
-      <c r="N6">
-        <v>1.9</v>
-      </c>
-      <c r="O6">
-        <v>0.9</v>
-      </c>
-      <c r="P6" s="49">
-        <v>2.7</v>
-      </c>
-      <c r="Q6">
-        <v>0.7</v>
-      </c>
-      <c r="R6">
-        <v>2.7</v>
-      </c>
-      <c r="S6">
-        <v>1.2</v>
-      </c>
-      <c r="T6">
-        <v>0.9</v>
-      </c>
-      <c r="U6">
-        <v>0.7</v>
-      </c>
-      <c r="V6">
-        <v>0.8</v>
-      </c>
-      <c r="W6">
-        <v>0.9</v>
-      </c>
-      <c r="X6">
-        <v>1.5</v>
-      </c>
-      <c r="Y6">
-        <v>2.7</v>
-      </c>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:25" s="2" customFormat="1">
       <c r="A7" s="2">
@@ -2648,29 +2527,29 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="4">
@@ -2679,7 +2558,7 @@
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="4">
@@ -2688,7 +2567,7 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="4">
@@ -2697,7 +2576,7 @@
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4">
@@ -2706,7 +2585,7 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="4">
@@ -2715,7 +2594,7 @@
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="4">
@@ -2724,7 +2603,7 @@
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="4">
@@ -2733,7 +2612,7 @@
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="4">
@@ -2742,7 +2621,7 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="4">
@@ -2751,9 +2630,9 @@
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2761,7 +2640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2769,7 +2648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2777,7 +2656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2785,7 +2664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2793,7 +2672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2801,7 +2680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2809,7 +2688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2817,7 +2696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2825,7 +2704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2833,7 +2712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2841,7 +2720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2849,7 +2728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2857,7 +2736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2865,161 +2744,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31">
-        <v>25.4</v>
-      </c>
-      <c r="D31">
-        <v>29.6</v>
-      </c>
-      <c r="E31">
-        <v>27.7</v>
-      </c>
-      <c r="F31">
-        <v>25.9</v>
-      </c>
-      <c r="G31">
-        <v>23.4</v>
-      </c>
-      <c r="H31">
-        <v>22.5</v>
-      </c>
-      <c r="I31">
-        <v>23.1</v>
-      </c>
-      <c r="J31">
-        <v>25.1</v>
-      </c>
-      <c r="K31">
-        <v>26.4</v>
-      </c>
-      <c r="L31">
-        <v>23.2</v>
-      </c>
-      <c r="M31">
-        <v>29.1</v>
-      </c>
-      <c r="N31">
-        <v>32.1</v>
-      </c>
-      <c r="O31">
-        <v>23.3</v>
-      </c>
-      <c r="P31" s="49">
-        <v>24.2</v>
-      </c>
-      <c r="Q31">
-        <v>22.5</v>
-      </c>
-      <c r="R31">
-        <v>32.1</v>
-      </c>
-      <c r="S31">
-        <v>25.8</v>
-      </c>
-      <c r="T31">
-        <v>25.3</v>
-      </c>
-      <c r="U31">
-        <v>22.5</v>
-      </c>
-      <c r="V31">
-        <v>23.3</v>
-      </c>
-      <c r="W31">
-        <v>25.3</v>
-      </c>
-      <c r="X31">
-        <v>27.4</v>
-      </c>
-      <c r="Y31">
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C32">
-        <v>54.8</v>
-      </c>
-      <c r="D32">
-        <v>55.6</v>
-      </c>
-      <c r="E32">
-        <v>55</v>
-      </c>
-      <c r="F32">
-        <v>58.7</v>
-      </c>
-      <c r="G32">
-        <v>57.4</v>
-      </c>
-      <c r="H32">
-        <v>54.7</v>
-      </c>
-      <c r="I32">
-        <v>53.1</v>
-      </c>
-      <c r="J32">
-        <v>55.2</v>
-      </c>
-      <c r="K32">
-        <v>56.7</v>
-      </c>
-      <c r="L32">
-        <v>56</v>
-      </c>
-      <c r="M32">
-        <v>60.3</v>
-      </c>
-      <c r="N32">
-        <v>60.9</v>
-      </c>
-      <c r="O32">
-        <v>55.5</v>
-      </c>
-      <c r="P32" s="49">
-        <v>57.5</v>
-      </c>
-      <c r="Q32">
-        <v>53.1</v>
-      </c>
-      <c r="R32">
-        <v>60.9</v>
-      </c>
-      <c r="S32">
-        <v>56.5</v>
-      </c>
-      <c r="T32">
-        <v>55.8</v>
-      </c>
-      <c r="U32">
-        <v>53.1</v>
-      </c>
-      <c r="V32">
-        <v>55.1</v>
-      </c>
-      <c r="W32">
-        <v>55.8</v>
-      </c>
-      <c r="X32">
-        <v>57.5</v>
-      </c>
-      <c r="Y32">
-        <v>60.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3027,7 +2768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3035,161 +2776,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C35">
-        <v>37.6</v>
-      </c>
-      <c r="D35">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E35">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <v>37.9</v>
-      </c>
-      <c r="G35">
-        <v>40.9</v>
-      </c>
-      <c r="H35">
-        <v>46.9</v>
-      </c>
-      <c r="I35">
-        <v>35.6</v>
-      </c>
-      <c r="J35">
-        <v>36.4</v>
-      </c>
-      <c r="K35">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="L35">
-        <v>31.1</v>
-      </c>
-      <c r="M35">
-        <v>33.6</v>
-      </c>
-      <c r="N35">
-        <v>26.7</v>
-      </c>
-      <c r="O35">
-        <v>43.6</v>
-      </c>
-      <c r="P35" s="49">
-        <v>40</v>
-      </c>
-      <c r="Q35">
-        <v>26.7</v>
-      </c>
-      <c r="R35">
-        <v>46.9</v>
-      </c>
-      <c r="S35">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="T35">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="U35">
-        <v>26.7</v>
-      </c>
-      <c r="V35">
-        <v>33.9</v>
-      </c>
-      <c r="W35">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="X35">
-        <v>39.5</v>
-      </c>
-      <c r="Y35">
-        <v>46.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C36">
-        <v>13.4</v>
-      </c>
-      <c r="D36">
-        <v>11.5</v>
-      </c>
-      <c r="E36">
-        <v>12.2</v>
-      </c>
-      <c r="F36">
-        <v>13</v>
-      </c>
-      <c r="G36">
-        <v>14.3</v>
-      </c>
-      <c r="H36">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I36">
-        <v>16.2</v>
-      </c>
-      <c r="J36">
-        <v>14.9</v>
-      </c>
-      <c r="K36">
-        <v>14.7</v>
-      </c>
-      <c r="L36">
-        <v>12.7</v>
-      </c>
-      <c r="M36">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="N36">
-        <v>14.4</v>
-      </c>
-      <c r="O36">
-        <v>14.8</v>
-      </c>
-      <c r="P36" s="49">
-        <v>18.3</v>
-      </c>
-      <c r="Q36">
-        <v>11.5</v>
-      </c>
-      <c r="R36">
-        <v>18.3</v>
-      </c>
-      <c r="S36">
-        <v>14.6</v>
-      </c>
-      <c r="T36">
-        <v>14.6</v>
-      </c>
-      <c r="U36">
-        <v>11.5</v>
-      </c>
-      <c r="V36">
-        <v>13.1</v>
-      </c>
-      <c r="W36">
-        <v>14.6</v>
-      </c>
-      <c r="X36">
-        <v>15.9</v>
-      </c>
-      <c r="Y36">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3197,7 +2800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3205,7 +2808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3213,7 +2816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3221,7 +2824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3229,7 +2832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3237,7 +2840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3245,7 +2848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3253,7 +2856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3261,7 +2864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3269,7 +2872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3277,7 +2880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3335,11 +2938,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="126" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sds2011.xlsx
+++ b/sds2011.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="10980" windowHeight="4725"/>
+    <workbookView xWindow="10400" yWindow="0" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="prevelence" sheetId="19" r:id="rId1"/>
@@ -14,12 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fact!$A$1:$C$127</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="127">
   <si>
     <t>metric</t>
   </si>
@@ -397,19 +402,22 @@
   </si>
   <si>
     <t>prevalence</t>
+  </si>
+  <si>
+    <t>% of diabetes pop with HbA1c &gt; 75 mmol/mol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +446,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -460,14 +484,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -476,33 +500,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -510,14 +534,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,59 +549,61 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,9 +696,21 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -970,20 +1008,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1574,27 +1610,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="45.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
@@ -1627,6 +1670,12 @@
       <c r="C2" s="32" t="s">
         <v>85</v>
       </c>
+      <c r="D2">
+        <v>2221</v>
+      </c>
+      <c r="E2" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
@@ -1638,6 +1687,12 @@
       <c r="C3" s="32" t="s">
         <v>86</v>
       </c>
+      <c r="D3">
+        <v>614</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
@@ -1649,6 +1704,12 @@
       <c r="C4" s="32" t="s">
         <v>87</v>
       </c>
+      <c r="D4">
+        <v>893</v>
+      </c>
+      <c r="E4" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -1660,6 +1721,12 @@
       <c r="C5" s="32" t="s">
         <v>88</v>
       </c>
+      <c r="D5">
+        <v>1969</v>
+      </c>
+      <c r="E5" s="56">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -1671,6 +1738,12 @@
       <c r="C6" s="32" t="s">
         <v>89</v>
       </c>
+      <c r="D6">
+        <v>1606</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
@@ -1682,6 +1755,12 @@
       <c r="C7" s="32" t="s">
         <v>90</v>
       </c>
+      <c r="D7">
+        <v>3053</v>
+      </c>
+      <c r="E7" s="56">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
@@ -1693,6 +1772,12 @@
       <c r="C8" s="32" t="s">
         <v>91</v>
       </c>
+      <c r="D8">
+        <v>6180</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
@@ -1704,6 +1789,12 @@
       <c r="C9" s="32" t="s">
         <v>92</v>
       </c>
+      <c r="D9">
+        <v>1758</v>
+      </c>
+      <c r="E9" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -1715,6 +1806,12 @@
       <c r="C10" s="32" t="s">
         <v>93</v>
       </c>
+      <c r="D10">
+        <v>3513</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -1726,6 +1823,12 @@
       <c r="C11" s="32" t="s">
         <v>94</v>
       </c>
+      <c r="D11">
+        <v>4175</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
@@ -1737,6 +1840,12 @@
       <c r="C12" s="32" t="s">
         <v>95</v>
       </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
@@ -1748,6 +1857,12 @@
       <c r="C13" s="32" t="s">
         <v>96</v>
       </c>
+      <c r="D13">
+        <v>871</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
@@ -1759,6 +1874,12 @@
       <c r="C14" s="32" t="s">
         <v>97</v>
       </c>
+      <c r="D14">
+        <v>1864</v>
+      </c>
+      <c r="E14" s="56">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
@@ -1770,7 +1891,12 @@
       <c r="C15" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="D15" s="2">
+        <v>182</v>
+      </c>
+      <c r="E15" s="57">
+        <v>0.7</v>
+      </c>
       <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6">
@@ -1783,6 +1909,12 @@
       <c r="C16" s="32" t="s">
         <v>85</v>
       </c>
+      <c r="D16">
+        <v>17919</v>
+      </c>
+      <c r="E16" s="56">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
@@ -1794,6 +1926,12 @@
       <c r="C17" s="32" t="s">
         <v>86</v>
       </c>
+      <c r="D17">
+        <v>4846</v>
+      </c>
+      <c r="E17" s="56">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
@@ -1805,6 +1943,12 @@
       <c r="C18" s="32" t="s">
         <v>87</v>
       </c>
+      <c r="D18">
+        <v>7236</v>
+      </c>
+      <c r="E18" s="56">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
@@ -1816,6 +1960,12 @@
       <c r="C19" s="32" t="s">
         <v>88</v>
       </c>
+      <c r="D19">
+        <v>16164</v>
+      </c>
+      <c r="E19" s="56">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
@@ -1827,6 +1977,12 @@
       <c r="C20" s="32" t="s">
         <v>89</v>
       </c>
+      <c r="D20">
+        <v>12528</v>
+      </c>
+      <c r="E20" s="56">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
@@ -1838,6 +1994,12 @@
       <c r="C21" s="32" t="s">
         <v>90</v>
       </c>
+      <c r="D21">
+        <v>20902</v>
+      </c>
+      <c r="E21" s="56">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
@@ -1849,6 +2011,12 @@
       <c r="C22" s="32" t="s">
         <v>91</v>
       </c>
+      <c r="D22">
+        <v>50005</v>
+      </c>
+      <c r="E22" s="56">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
@@ -1860,6 +2028,12 @@
       <c r="C23" s="32" t="s">
         <v>92</v>
       </c>
+      <c r="D23">
+        <v>12479</v>
+      </c>
+      <c r="E23" s="56">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
@@ -1871,6 +2045,12 @@
       <c r="C24" s="32" t="s">
         <v>93</v>
       </c>
+      <c r="D24">
+        <v>24998</v>
+      </c>
+      <c r="E24" s="56">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
@@ -1882,6 +2062,12 @@
       <c r="C25" s="32" t="s">
         <v>94</v>
       </c>
+      <c r="D25">
+        <v>29551</v>
+      </c>
+      <c r="E25" s="56">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
@@ -1893,6 +2079,12 @@
       <c r="C26" s="32" t="s">
         <v>95</v>
       </c>
+      <c r="D26">
+        <v>853</v>
+      </c>
+      <c r="E26" s="56">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
@@ -1904,6 +2096,12 @@
       <c r="C27" s="32" t="s">
         <v>96</v>
       </c>
+      <c r="D27">
+        <v>871</v>
+      </c>
+      <c r="E27" s="56">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
@@ -1915,6 +2113,12 @@
       <c r="C28" s="32" t="s">
         <v>97</v>
       </c>
+      <c r="D28">
+        <v>18104</v>
+      </c>
+      <c r="E28" s="56">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
@@ -1926,118 +2130,511 @@
       <c r="C29" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="47"/>
+      <c r="D29" s="2">
+        <v>1058</v>
+      </c>
+      <c r="E29" s="57">
+        <v>4</v>
+      </c>
       <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="C30" s="32"/>
+      <c r="A30" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="15">
+        <v>744</v>
+      </c>
+      <c r="E30" s="56">
+        <v>37.6</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="C31" s="32"/>
+      <c r="A31" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="15">
+        <v>178</v>
+      </c>
+      <c r="E31" s="56">
+        <v>37.200000000000003</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="32"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="32"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="32"/>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="32"/>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="32"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="32"/>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="32"/>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="32"/>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="32"/>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="32"/>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="32"/>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="32"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="32"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="32"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="32"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="32"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="32"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="32"/>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="32"/>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="32"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="32"/>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="32"/>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="32"/>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="32"/>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="32"/>
-    </row>
-    <row r="58" spans="3:4">
+      <c r="A32" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="15">
+        <v>249</v>
+      </c>
+      <c r="E32" s="56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="15">
+        <v>644</v>
+      </c>
+      <c r="E33" s="56">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="15">
+        <v>573</v>
+      </c>
+      <c r="E34" s="56">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1317</v>
+      </c>
+      <c r="E35" s="56">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>1885</v>
+      </c>
+      <c r="E36" s="56">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37">
+        <v>534</v>
+      </c>
+      <c r="E37" s="56">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38">
+        <v>988</v>
+      </c>
+      <c r="E38" s="56">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39">
+        <v>1058</v>
+      </c>
+      <c r="E39" s="56">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40" s="56">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41" s="56">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>759</v>
+      </c>
+      <c r="E42" s="56">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1">
+      <c r="A43" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="2">
+        <v>70</v>
+      </c>
+      <c r="E43" s="57">
+        <v>40</v>
+      </c>
+      <c r="F43" s="47"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <v>2296</v>
+      </c>
+      <c r="E44" s="56">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45">
+        <v>497</v>
+      </c>
+      <c r="E45" s="56">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46">
+        <v>810</v>
+      </c>
+      <c r="E46" s="56">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47">
+        <v>1928</v>
+      </c>
+      <c r="E47" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48">
+        <v>1687</v>
+      </c>
+      <c r="E48" s="56">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49">
+        <v>3326</v>
+      </c>
+      <c r="E49" s="56">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50">
+        <v>7325</v>
+      </c>
+      <c r="E50" s="56">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51">
+        <v>1709</v>
+      </c>
+      <c r="E51" s="56">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52">
+        <v>3339</v>
+      </c>
+      <c r="E52" s="56">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53">
+        <v>3249</v>
+      </c>
+      <c r="E53" s="56">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54">
+        <v>142</v>
+      </c>
+      <c r="E54" s="56">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>116</v>
+      </c>
+      <c r="E55" s="56">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56">
+        <v>2568</v>
+      </c>
+      <c r="E56" s="56">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1">
+      <c r="A57" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="2">
+        <v>185</v>
+      </c>
+      <c r="E57" s="57">
+        <v>18.3</v>
+      </c>
+      <c r="F57" s="47"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="C58" s="32"/>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" spans="1:6">
       <c r="C59" s="32"/>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="1:6">
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="1:6">
       <c r="C61" s="32"/>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="1:6">
       <c r="C62" s="32"/>
     </row>
-    <row r="63" spans="3:4">
+    <row r="63" spans="1:6">
       <c r="C63" s="32"/>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="1:6">
       <c r="C64" s="32"/>
     </row>
     <row r="65" spans="3:3">
@@ -2315,30 +2912,38 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="126" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="12.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="6" customWidth="1"/>
-    <col min="17" max="25" width="12.42578125" style="12" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="56.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="12.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="6" customWidth="1"/>
+    <col min="17" max="19" width="12.5" style="12" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="60" customWidth="1"/>
+    <col min="21" max="24" width="12.5" style="12" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="60" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1">
@@ -2399,7 +3004,7 @@
       <c r="S1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>118</v>
       </c>
       <c r="U1" s="8" t="s">
@@ -2414,7 +3019,7 @@
       <c r="X1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2425,29 +3030,84 @@
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
+      <c r="C2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>MIN($C2:$P2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="12">
+        <f>MAX($C2:P2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="12">
+        <f>AVERAGE($C2:$P2)</f>
+        <v>0.58571428571428563</v>
+      </c>
+      <c r="T2" s="60">
+        <f>MEDIAN($C2:$P2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="U2" s="12">
+        <f>_xlfn.QUARTILE.INC($C2:$P2,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="V2" s="12">
+        <f>_xlfn.QUARTILE.INC($C2:$P2,1)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="W2" s="12">
+        <f>_xlfn.QUARTILE.INC($C2:$P2,2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="X2" s="12">
+        <f>_xlfn.QUARTILE.INC($C2:$P2,3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Y2" s="60">
+        <f>_xlfn.QUARTILE.INC($C2:$P2,4)</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1">
       <c r="A3" s="7">
@@ -2456,29 +3116,84 @@
       <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
+      <c r="C3" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="K3" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="L3" s="10">
+        <v>3</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="N3" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="O3" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q54" si="0">MIN($C3:$P3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R3" s="12">
+        <f>MAX($C3:P3)</f>
+        <v>3.5</v>
+      </c>
+      <c r="S3" s="12">
+        <f t="shared" ref="S3:S54" si="1">AVERAGE($C3:$P3)</f>
+        <v>3.05</v>
+      </c>
+      <c r="T3" s="60">
+        <f t="shared" ref="T3:T54" si="2">MEDIAN($C3:$P3)</f>
+        <v>3</v>
+      </c>
+      <c r="U3" s="12">
+        <f t="shared" ref="U3:U54" si="3">_xlfn.QUARTILE.INC($C3:$P3,0)</f>
+        <v>2.5</v>
+      </c>
+      <c r="V3" s="12">
+        <f t="shared" ref="V3:V54" si="4">_xlfn.QUARTILE.INC($C3:$P3,1)</f>
+        <v>2.8249999999999997</v>
+      </c>
+      <c r="W3" s="12">
+        <f t="shared" ref="W3:W54" si="5">_xlfn.QUARTILE.INC($C3:$P3,2)</f>
+        <v>3</v>
+      </c>
+      <c r="X3" s="12">
+        <f t="shared" ref="X3:X54" si="6">_xlfn.QUARTILE.INC($C3:$P3,3)</f>
+        <v>3.3</v>
+      </c>
+      <c r="Y3" s="60">
+        <f t="shared" ref="Y3:Y54" si="7">_xlfn.QUARTILE.INC($C3:$P3,4)</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="4">
@@ -2487,7 +3202,84 @@
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="C4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="12">
+        <f>MAX($C4:P4)</f>
+        <v>0.7</v>
+      </c>
+      <c r="S4" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="T4" s="60">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="V4" s="12">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="12">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="X4" s="12">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y4" s="60">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="4">
@@ -2496,20 +3288,84 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
+      <c r="C5" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G5" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="I5" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>4</v>
+      </c>
+      <c r="K5" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="M5" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="N5" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="O5" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="P5" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="R5" s="12">
+        <f>MAX($C5:P5)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S5" s="12">
+        <f t="shared" si="1"/>
+        <v>4.2357142857142858</v>
+      </c>
+      <c r="T5" s="60">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="U5" s="12">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y5" s="60">
+        <f t="shared" si="7"/>
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="4">
@@ -2518,7 +3374,84 @@
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="C6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="P6" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="R6" s="12">
+        <f>MAX($C6:P6)</f>
+        <v>2.7</v>
+      </c>
+      <c r="S6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2142857142857146</v>
+      </c>
+      <c r="T6" s="60">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="U6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="V6" s="12">
+        <f t="shared" si="4"/>
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="W6" s="12">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="X6" s="12">
+        <f t="shared" si="6"/>
+        <v>1.5250000000000001</v>
+      </c>
+      <c r="Y6" s="60">
+        <f t="shared" si="7"/>
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7" spans="1:25" s="2" customFormat="1">
       <c r="A7" s="2">
@@ -2527,29 +3460,84 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
+      <c r="C7" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="D7" s="26">
+        <v>4</v>
+      </c>
+      <c r="E7" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="48">
+        <v>3.8</v>
+      </c>
+      <c r="G7" s="48">
+        <v>3.4</v>
+      </c>
+      <c r="H7" s="48">
+        <v>3.6</v>
+      </c>
+      <c r="I7" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="J7" s="48">
+        <v>3.8</v>
+      </c>
+      <c r="K7" s="48">
+        <v>3.4</v>
+      </c>
+      <c r="L7" s="48">
+        <v>3.4</v>
+      </c>
+      <c r="M7" s="48">
+        <v>3.9</v>
+      </c>
+      <c r="N7" s="48">
+        <v>4</v>
+      </c>
+      <c r="O7" s="48">
+        <v>3.9</v>
+      </c>
+      <c r="P7" s="49">
+        <v>2.9</v>
+      </c>
+      <c r="Q7" s="50">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="R7" s="50">
+        <f>MAX($C7:P7)</f>
+        <v>4</v>
+      </c>
+      <c r="S7" s="50">
+        <f t="shared" si="1"/>
+        <v>3.5857142857142854</v>
+      </c>
+      <c r="T7" s="61">
+        <f t="shared" si="2"/>
+        <v>3.55</v>
+      </c>
+      <c r="U7" s="50">
+        <f t="shared" si="3"/>
+        <v>2.9</v>
+      </c>
+      <c r="V7" s="50">
+        <f t="shared" si="4"/>
+        <v>3.4</v>
+      </c>
+      <c r="W7" s="50">
+        <f t="shared" si="5"/>
+        <v>3.55</v>
+      </c>
+      <c r="X7" s="50">
+        <f t="shared" si="6"/>
+        <v>3.875</v>
+      </c>
+      <c r="Y7" s="61">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="4">
@@ -2558,7 +3546,84 @@
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="5">
+        <v>91</v>
+      </c>
+      <c r="D8" s="19">
+        <v>93</v>
+      </c>
+      <c r="E8" s="5">
+        <v>87.6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>83.9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>84.9</v>
+      </c>
+      <c r="H8" s="5">
+        <v>92.3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>88</v>
+      </c>
+      <c r="J8" s="5">
+        <v>89.7</v>
+      </c>
+      <c r="K8" s="5">
+        <v>84.8</v>
+      </c>
+      <c r="L8" s="5">
+        <v>91</v>
+      </c>
+      <c r="M8" s="5">
+        <v>93.2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>88.4</v>
+      </c>
+      <c r="O8" s="5">
+        <v>91.6</v>
+      </c>
+      <c r="P8" s="6">
+        <v>86.6</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="0"/>
+        <v>83.9</v>
+      </c>
+      <c r="R8" s="12">
+        <f>MAX($C8:P8)</f>
+        <v>93.2</v>
+      </c>
+      <c r="S8" s="12">
+        <f t="shared" si="1"/>
+        <v>88.999999999999986</v>
+      </c>
+      <c r="T8" s="60">
+        <f t="shared" si="2"/>
+        <v>89.050000000000011</v>
+      </c>
+      <c r="U8" s="12">
+        <f t="shared" si="3"/>
+        <v>83.9</v>
+      </c>
+      <c r="V8" s="12">
+        <f t="shared" si="4"/>
+        <v>86.85</v>
+      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="5"/>
+        <v>89.050000000000011</v>
+      </c>
+      <c r="X8" s="12">
+        <f t="shared" si="6"/>
+        <v>91.449999999999989</v>
+      </c>
+      <c r="Y8" s="60">
+        <f t="shared" si="7"/>
+        <v>93.2</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="4">
@@ -2567,7 +3632,84 @@
       <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="C9" s="5">
+        <v>89.1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>78</v>
+      </c>
+      <c r="E9" s="5">
+        <v>87.1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>86.3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>87.2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>91.9</v>
+      </c>
+      <c r="I9" s="5">
+        <v>85.6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>83.4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="L9" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="M9" s="5">
+        <v>99.2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>96.8</v>
+      </c>
+      <c r="O9" s="5">
+        <v>93.5</v>
+      </c>
+      <c r="P9" s="6">
+        <v>96.2</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="R9" s="12">
+        <f>MAX($C9:P9)</f>
+        <v>99.2</v>
+      </c>
+      <c r="S9" s="12">
+        <f t="shared" si="1"/>
+        <v>88.350000000000009</v>
+      </c>
+      <c r="T9" s="60">
+        <f t="shared" si="2"/>
+        <v>87.15</v>
+      </c>
+      <c r="U9" s="12">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="V9" s="12">
+        <f t="shared" si="4"/>
+        <v>83.95</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="5"/>
+        <v>87.15</v>
+      </c>
+      <c r="X9" s="12">
+        <f t="shared" si="6"/>
+        <v>93.1</v>
+      </c>
+      <c r="Y9" s="60">
+        <f t="shared" si="7"/>
+        <v>99.2</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="4">
@@ -2576,7 +3718,84 @@
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="5">
+        <v>95.7</v>
+      </c>
+      <c r="D10" s="19">
+        <v>89.4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>91.4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>91.8</v>
+      </c>
+      <c r="G10" s="5">
+        <v>94.3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>95.6</v>
+      </c>
+      <c r="I10" s="5">
+        <v>90.3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>92.1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>91</v>
+      </c>
+      <c r="L10" s="5">
+        <v>86.3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>98.6</v>
+      </c>
+      <c r="N10" s="5">
+        <v>92.2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>95.8</v>
+      </c>
+      <c r="P10" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="0"/>
+        <v>86.3</v>
+      </c>
+      <c r="R10" s="12">
+        <f>MAX($C10:P10)</f>
+        <v>98.6</v>
+      </c>
+      <c r="S10" s="12">
+        <f t="shared" si="1"/>
+        <v>92.871428571428581</v>
+      </c>
+      <c r="T10" s="60">
+        <f t="shared" si="2"/>
+        <v>92.15</v>
+      </c>
+      <c r="U10" s="12">
+        <f t="shared" si="3"/>
+        <v>86.3</v>
+      </c>
+      <c r="V10" s="12">
+        <f t="shared" si="4"/>
+        <v>91.1</v>
+      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="5"/>
+        <v>92.15</v>
+      </c>
+      <c r="X10" s="12">
+        <f t="shared" si="6"/>
+        <v>95.674999999999997</v>
+      </c>
+      <c r="Y10" s="60">
+        <f t="shared" si="7"/>
+        <v>98.6</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="4">
@@ -2585,7 +3804,84 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="5">
+        <v>82.4</v>
+      </c>
+      <c r="D11" s="19">
+        <v>90.2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>86.3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>81.7</v>
+      </c>
+      <c r="G11" s="5">
+        <v>76.8</v>
+      </c>
+      <c r="H11" s="5">
+        <v>85.7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>87.4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>83.8</v>
+      </c>
+      <c r="K11" s="5">
+        <v>83.7</v>
+      </c>
+      <c r="L11" s="5">
+        <v>89.5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>89.2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>91.9</v>
+      </c>
+      <c r="O11" s="5">
+        <v>86.9</v>
+      </c>
+      <c r="P11" s="6">
+        <v>86.8</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" si="0"/>
+        <v>76.8</v>
+      </c>
+      <c r="R11" s="12">
+        <f>MAX($C11:P11)</f>
+        <v>91.9</v>
+      </c>
+      <c r="S11" s="12">
+        <f t="shared" si="1"/>
+        <v>85.878571428571448</v>
+      </c>
+      <c r="T11" s="60">
+        <f t="shared" si="2"/>
+        <v>86.55</v>
+      </c>
+      <c r="U11" s="12">
+        <f t="shared" si="3"/>
+        <v>76.8</v>
+      </c>
+      <c r="V11" s="12">
+        <f t="shared" si="4"/>
+        <v>83.724999999999994</v>
+      </c>
+      <c r="W11" s="12">
+        <f t="shared" si="5"/>
+        <v>86.55</v>
+      </c>
+      <c r="X11" s="12">
+        <f t="shared" si="6"/>
+        <v>88.75</v>
+      </c>
+      <c r="Y11" s="60">
+        <f t="shared" si="7"/>
+        <v>91.9</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="4">
@@ -2594,7 +3890,84 @@
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="5">
+        <v>96.3</v>
+      </c>
+      <c r="D12" s="19">
+        <v>96.6</v>
+      </c>
+      <c r="E12" s="5">
+        <v>93.2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>90</v>
+      </c>
+      <c r="G12" s="5">
+        <v>90.6</v>
+      </c>
+      <c r="H12" s="5">
+        <v>96.7</v>
+      </c>
+      <c r="I12" s="5">
+        <v>93.1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>95.6</v>
+      </c>
+      <c r="K12" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>95.8</v>
+      </c>
+      <c r="M12" s="5">
+        <v>98.6</v>
+      </c>
+      <c r="N12" s="5">
+        <v>93.8</v>
+      </c>
+      <c r="O12" s="5">
+        <v>96.2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>95.7</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="R12" s="12">
+        <f>MAX($C12:P12)</f>
+        <v>98.6</v>
+      </c>
+      <c r="S12" s="12">
+        <f t="shared" si="1"/>
+        <v>94.621428571428581</v>
+      </c>
+      <c r="T12" s="60">
+        <f t="shared" si="2"/>
+        <v>95.65</v>
+      </c>
+      <c r="U12" s="12">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="4"/>
+        <v>93.125</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="5"/>
+        <v>95.65</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" si="6"/>
+        <v>96.275000000000006</v>
+      </c>
+      <c r="Y12" s="60">
+        <f t="shared" si="7"/>
+        <v>98.6</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="4">
@@ -2603,7 +3976,84 @@
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="5">
+        <v>80.2</v>
+      </c>
+      <c r="D13" s="19">
+        <v>84</v>
+      </c>
+      <c r="E13" s="5">
+        <v>82.1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>77.8</v>
+      </c>
+      <c r="G13" s="5">
+        <v>80.3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>78.7</v>
+      </c>
+      <c r="I13" s="5">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="J13" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="L13" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>94.8</v>
+      </c>
+      <c r="N13" s="5">
+        <v>83.2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>77.7</v>
+      </c>
+      <c r="P13" s="6">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="0"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R13" s="12">
+        <f>MAX($C13:P13)</f>
+        <v>94.8</v>
+      </c>
+      <c r="S13" s="12">
+        <f t="shared" si="1"/>
+        <v>80.3</v>
+      </c>
+      <c r="T13" s="60">
+        <f t="shared" si="2"/>
+        <v>80.25</v>
+      </c>
+      <c r="U13" s="12">
+        <f t="shared" si="3"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="V13" s="12">
+        <f t="shared" si="4"/>
+        <v>77.974999999999994</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="5"/>
+        <v>80.25</v>
+      </c>
+      <c r="X13" s="12">
+        <f t="shared" si="6"/>
+        <v>82.05</v>
+      </c>
+      <c r="Y13" s="60">
+        <f t="shared" si="7"/>
+        <v>94.8</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="4">
@@ -2612,7 +4062,84 @@
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="5">
+        <v>94.7</v>
+      </c>
+      <c r="D14" s="19">
+        <v>93.4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>89</v>
+      </c>
+      <c r="F14" s="5">
+        <v>89.9</v>
+      </c>
+      <c r="G14" s="5">
+        <v>92.3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>94.5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>87.9</v>
+      </c>
+      <c r="J14" s="5">
+        <v>90.8</v>
+      </c>
+      <c r="K14" s="5">
+        <v>89.2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>91.3</v>
+      </c>
+      <c r="M14" s="5">
+        <v>97.1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>88.4</v>
+      </c>
+      <c r="O14" s="5">
+        <v>95.1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>92.9</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="0"/>
+        <v>87.9</v>
+      </c>
+      <c r="R14" s="12">
+        <f>MAX($C14:P14)</f>
+        <v>97.1</v>
+      </c>
+      <c r="S14" s="12">
+        <f t="shared" si="1"/>
+        <v>91.892857142857139</v>
+      </c>
+      <c r="T14" s="60">
+        <f t="shared" si="2"/>
+        <v>91.8</v>
+      </c>
+      <c r="U14" s="12">
+        <f t="shared" si="3"/>
+        <v>87.9</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="4"/>
+        <v>89.375</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="5"/>
+        <v>91.8</v>
+      </c>
+      <c r="X14" s="12">
+        <f t="shared" si="6"/>
+        <v>94.224999999999994</v>
+      </c>
+      <c r="Y14" s="60">
+        <f t="shared" si="7"/>
+        <v>97.1</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="4">
@@ -2621,7 +4148,84 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="5">
+        <v>93.7</v>
+      </c>
+      <c r="D15" s="19">
+        <v>95.4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>95.7</v>
+      </c>
+      <c r="F15" s="5">
+        <v>95.7</v>
+      </c>
+      <c r="G15" s="5">
+        <v>98.3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>94.7</v>
+      </c>
+      <c r="I15" s="5">
+        <v>95.5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>94</v>
+      </c>
+      <c r="K15" s="5">
+        <v>95.7</v>
+      </c>
+      <c r="L15" s="5">
+        <v>99.3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>92.5</v>
+      </c>
+      <c r="N15" s="5">
+        <v>96.8</v>
+      </c>
+      <c r="O15" s="5">
+        <v>94.5</v>
+      </c>
+      <c r="P15" s="6">
+        <v>94.5</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+      <c r="R15" s="12">
+        <f>MAX($C15:P15)</f>
+        <v>99.3</v>
+      </c>
+      <c r="S15" s="12">
+        <f t="shared" si="1"/>
+        <v>95.45</v>
+      </c>
+      <c r="T15" s="60">
+        <f t="shared" si="2"/>
+        <v>95.45</v>
+      </c>
+      <c r="U15" s="12">
+        <f t="shared" si="3"/>
+        <v>92.5</v>
+      </c>
+      <c r="V15" s="12">
+        <f t="shared" si="4"/>
+        <v>94.5</v>
+      </c>
+      <c r="W15" s="12">
+        <f t="shared" si="5"/>
+        <v>95.45</v>
+      </c>
+      <c r="X15" s="12">
+        <f t="shared" si="6"/>
+        <v>95.7</v>
+      </c>
+      <c r="Y15" s="60">
+        <f t="shared" si="7"/>
+        <v>99.3</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="4">
@@ -2630,314 +4234,3360 @@
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="5">
+        <v>99.8</v>
+      </c>
+      <c r="D16" s="32">
+        <v>99.4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>99.6</v>
+      </c>
+      <c r="G16" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>99.8</v>
+      </c>
+      <c r="I16" s="5">
+        <v>99.2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>99.7</v>
+      </c>
+      <c r="K16" s="5">
+        <v>99.8</v>
+      </c>
+      <c r="L16" s="5">
+        <v>99.9</v>
+      </c>
+      <c r="M16" s="5">
+        <v>99.8</v>
+      </c>
+      <c r="N16" s="5">
+        <v>99.9</v>
+      </c>
+      <c r="O16" s="5">
+        <v>99.6</v>
+      </c>
+      <c r="P16" s="6">
+        <v>98.2</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="0"/>
+        <v>98.2</v>
+      </c>
+      <c r="R16" s="12">
+        <f>MAX($C16:P16)</f>
+        <v>99.9</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="1"/>
+        <v>99.55</v>
+      </c>
+      <c r="T16" s="60">
+        <f t="shared" si="2"/>
+        <v>99.65</v>
+      </c>
+      <c r="U16" s="12">
+        <f t="shared" si="3"/>
+        <v>98.2</v>
+      </c>
+      <c r="V16" s="12">
+        <f t="shared" si="4"/>
+        <v>99.5</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="5"/>
+        <v>99.65</v>
+      </c>
+      <c r="X16" s="12">
+        <f t="shared" si="6"/>
+        <v>99.8</v>
+      </c>
+      <c r="Y16" s="60">
+        <f t="shared" si="7"/>
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="5">
+        <v>89</v>
+      </c>
+      <c r="D17" s="5">
+        <v>85.1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>84.3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>83.4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>87.3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>87</v>
+      </c>
+      <c r="I17" s="5">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="J17" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>76.2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="M17" s="5">
+        <v>94.8</v>
+      </c>
+      <c r="N17" s="5">
+        <v>89.9</v>
+      </c>
+      <c r="O17" s="5">
+        <v>88.7</v>
+      </c>
+      <c r="P17" s="6">
+        <v>89.8</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="0"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="R17" s="12">
+        <f>MAX($C17:P17)</f>
+        <v>94.8</v>
+      </c>
+      <c r="S17" s="12">
+        <f t="shared" si="1"/>
+        <v>85.078571428571422</v>
+      </c>
+      <c r="T17" s="60">
+        <f t="shared" si="2"/>
+        <v>86.05</v>
+      </c>
+      <c r="U17" s="12">
+        <f t="shared" si="3"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="V17" s="12">
+        <f t="shared" si="4"/>
+        <v>81.974999999999994</v>
+      </c>
+      <c r="W17" s="12">
+        <f t="shared" si="5"/>
+        <v>86.05</v>
+      </c>
+      <c r="X17" s="12">
+        <f t="shared" si="6"/>
+        <v>88.924999999999997</v>
+      </c>
+      <c r="Y17" s="60">
+        <f t="shared" si="7"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="5">
+        <v>97.1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>88</v>
+      </c>
+      <c r="E18" s="5">
+        <v>88.8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>93.2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>95.9</v>
+      </c>
+      <c r="H18" s="5">
+        <v>96.8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>89.7</v>
+      </c>
+      <c r="J18" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="K18" s="5">
+        <v>91.9</v>
+      </c>
+      <c r="L18" s="5">
+        <v>90.2</v>
+      </c>
+      <c r="M18" s="5">
+        <v>95.2</v>
+      </c>
+      <c r="N18" s="5">
+        <v>94</v>
+      </c>
+      <c r="O18" s="5">
+        <v>97</v>
+      </c>
+      <c r="P18" s="6">
+        <v>96.9</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="R18" s="12">
+        <f>MAX($C18:P18)</f>
+        <v>97.1</v>
+      </c>
+      <c r="S18" s="12">
+        <f t="shared" si="1"/>
+        <v>93.014285714285734</v>
+      </c>
+      <c r="T18" s="60">
+        <f t="shared" si="2"/>
+        <v>93.6</v>
+      </c>
+      <c r="U18" s="12">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+      <c r="V18" s="12">
+        <f t="shared" si="4"/>
+        <v>89.825000000000003</v>
+      </c>
+      <c r="W18" s="12">
+        <f t="shared" si="5"/>
+        <v>93.6</v>
+      </c>
+      <c r="X18" s="12">
+        <f t="shared" si="6"/>
+        <v>96.575000000000003</v>
+      </c>
+      <c r="Y18" s="60">
+        <f t="shared" si="7"/>
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="5">
+        <v>53.1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>60.1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>22.3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5">
+        <v>51.1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>63.2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>53.4</v>
+      </c>
+      <c r="J19" s="5">
+        <v>53.2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>51</v>
+      </c>
+      <c r="L19" s="5">
+        <v>57.8</v>
+      </c>
+      <c r="M19" s="5">
+        <v>74.8</v>
+      </c>
+      <c r="N19" s="5">
+        <v>64.7</v>
+      </c>
+      <c r="O19" s="5">
+        <v>64.2</v>
+      </c>
+      <c r="P19" s="6">
+        <v>76.8</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="0"/>
+        <v>22.3</v>
+      </c>
+      <c r="R19" s="12">
+        <f>MAX($C19:P19)</f>
+        <v>76.8</v>
+      </c>
+      <c r="S19" s="12">
+        <f t="shared" si="1"/>
+        <v>57.835714285714282</v>
+      </c>
+      <c r="T19" s="60">
+        <f t="shared" si="2"/>
+        <v>58.95</v>
+      </c>
+      <c r="U19" s="12">
+        <f t="shared" si="3"/>
+        <v>22.3</v>
+      </c>
+      <c r="V19" s="12">
+        <f t="shared" si="4"/>
+        <v>53.125</v>
+      </c>
+      <c r="W19" s="12">
+        <f t="shared" si="5"/>
+        <v>58.95</v>
+      </c>
+      <c r="X19" s="12">
+        <f t="shared" si="6"/>
+        <v>64.150000000000006</v>
+      </c>
+      <c r="Y19" s="60">
+        <f t="shared" si="7"/>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="5">
+        <v>69.2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F20" s="5">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5">
+        <v>61.9</v>
+      </c>
+      <c r="H20" s="5">
+        <v>84.3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>62.6</v>
+      </c>
+      <c r="J20" s="5">
+        <v>70.5</v>
+      </c>
+      <c r="K20" s="5">
+        <v>69.8</v>
+      </c>
+      <c r="L20" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="M20" s="5">
+        <v>75.5</v>
+      </c>
+      <c r="N20" s="5">
+        <v>58.9</v>
+      </c>
+      <c r="O20" s="5">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="P20" s="6">
+        <v>82.3</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="R20" s="12">
+        <f>MAX($C20:P20)</f>
+        <v>84.3</v>
+      </c>
+      <c r="S20" s="12">
+        <f t="shared" si="1"/>
+        <v>63.55</v>
+      </c>
+      <c r="T20" s="60">
+        <f t="shared" si="2"/>
+        <v>69.5</v>
+      </c>
+      <c r="U20" s="12">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="V20" s="12">
+        <f t="shared" si="4"/>
+        <v>62.075000000000003</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="5"/>
+        <v>69.5</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="6"/>
+        <v>75.375</v>
+      </c>
+      <c r="Y20" s="60">
+        <f t="shared" si="7"/>
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="5">
+        <v>22.7</v>
+      </c>
+      <c r="D21" s="5">
+        <v>91.1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="G21" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="H21" s="5">
+        <v>86.2</v>
+      </c>
+      <c r="I21" s="5">
+        <v>50.2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="L21" s="5">
+        <v>32.9</v>
+      </c>
+      <c r="M21" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="N21" s="5">
+        <v>89.8</v>
+      </c>
+      <c r="O21" s="5">
+        <v>78</v>
+      </c>
+      <c r="P21" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="R21" s="12">
+        <f>MAX($C21:P21)</f>
+        <v>91.1</v>
+      </c>
+      <c r="S21" s="12">
+        <f t="shared" si="1"/>
+        <v>47.74285714285714</v>
+      </c>
+      <c r="T21" s="60">
+        <f t="shared" si="2"/>
+        <v>41.55</v>
+      </c>
+      <c r="U21" s="12">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" si="4"/>
+        <v>22.875</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" si="5"/>
+        <v>41.55</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" si="6"/>
+        <v>78.074999999999989</v>
+      </c>
+      <c r="Y21" s="60">
+        <f t="shared" si="7"/>
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>94.2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F22" s="5">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G22" s="5">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H22" s="5">
+        <v>95.1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>87.5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>53.6</v>
+      </c>
+      <c r="M22" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="N22" s="5">
+        <v>85.8</v>
+      </c>
+      <c r="O22" s="5">
+        <v>95.7</v>
+      </c>
+      <c r="P22" s="6">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="R22" s="12">
+        <f>MAX($C22:P22)</f>
+        <v>95.7</v>
+      </c>
+      <c r="S22" s="12">
+        <f t="shared" si="1"/>
+        <v>57.864285714285707</v>
+      </c>
+      <c r="T22" s="60">
+        <f t="shared" si="2"/>
+        <v>60.55</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="V22" s="12">
+        <f t="shared" si="4"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="W22" s="12">
+        <f t="shared" si="5"/>
+        <v>60.55</v>
+      </c>
+      <c r="X22" s="12">
+        <f t="shared" si="6"/>
+        <v>87.075000000000003</v>
+      </c>
+      <c r="Y22" s="60">
+        <f t="shared" si="7"/>
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="5">
+        <v>82.7</v>
+      </c>
+      <c r="D23" s="5">
+        <v>84.2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>90.7</v>
+      </c>
+      <c r="F23" s="5">
+        <v>81.2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>81.2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>84.9</v>
+      </c>
+      <c r="I23" s="5">
+        <v>77.3</v>
+      </c>
+      <c r="J23" s="5">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="K23" s="5">
+        <v>75.5</v>
+      </c>
+      <c r="L23" s="5">
+        <v>82</v>
+      </c>
+      <c r="M23" s="5">
+        <v>92.2</v>
+      </c>
+      <c r="N23" s="5">
+        <v>92.4</v>
+      </c>
+      <c r="O23" s="5">
+        <v>83.5</v>
+      </c>
+      <c r="P23" s="6">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="0"/>
+        <v>75.5</v>
+      </c>
+      <c r="R23" s="12">
+        <f>MAX($C23:P23)</f>
+        <v>92.4</v>
+      </c>
+      <c r="S23" s="12">
+        <f t="shared" si="1"/>
+        <v>83.071428571428569</v>
+      </c>
+      <c r="T23" s="60">
+        <f t="shared" si="2"/>
+        <v>82.35</v>
+      </c>
+      <c r="U23" s="12">
+        <f t="shared" si="3"/>
+        <v>75.5</v>
+      </c>
+      <c r="V23" s="12">
+        <f t="shared" si="4"/>
+        <v>79.625</v>
+      </c>
+      <c r="W23" s="12">
+        <f t="shared" si="5"/>
+        <v>82.35</v>
+      </c>
+      <c r="X23" s="12">
+        <f t="shared" si="6"/>
+        <v>84.725000000000009</v>
+      </c>
+      <c r="Y23" s="60">
+        <f t="shared" si="7"/>
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="5">
+        <v>88.1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>87.1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>93.4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>99.6</v>
+      </c>
+      <c r="G24" s="5">
+        <v>87.1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>90.2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>85.6</v>
+      </c>
+      <c r="J24" s="5">
+        <v>81.2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>82.2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>87.1</v>
+      </c>
+      <c r="M24" s="5">
+        <v>91.7</v>
+      </c>
+      <c r="N24" s="5">
+        <v>88.7</v>
+      </c>
+      <c r="O24" s="5">
+        <v>85.5</v>
+      </c>
+      <c r="P24" s="6">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="R24" s="12">
+        <f>MAX($C24:P24)</f>
+        <v>99.6</v>
+      </c>
+      <c r="S24" s="12">
+        <f t="shared" si="1"/>
+        <v>87.535714285714306</v>
+      </c>
+      <c r="T24" s="60">
+        <f t="shared" si="2"/>
+        <v>87.1</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="V24" s="12">
+        <f t="shared" si="4"/>
+        <v>85.525000000000006</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="5"/>
+        <v>87.1</v>
+      </c>
+      <c r="X24" s="12">
+        <f t="shared" si="6"/>
+        <v>89.825000000000003</v>
+      </c>
+      <c r="Y24" s="60">
+        <f t="shared" si="7"/>
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="5">
+        <v>48.8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5">
+        <v>60.9</v>
+      </c>
+      <c r="F25" s="5">
+        <v>58.9</v>
+      </c>
+      <c r="G25" s="5">
+        <v>49.4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>65.2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>56.5</v>
+      </c>
+      <c r="J25" s="5">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="K25" s="5">
+        <v>49.1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>61.5</v>
+      </c>
+      <c r="M25" s="5">
+        <v>78.3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>87.9</v>
+      </c>
+      <c r="O25" s="5">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="P25" s="6">
+        <v>62.1</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="0"/>
+        <v>48.8</v>
+      </c>
+      <c r="R25" s="12">
+        <f>MAX($C25:P25)</f>
+        <v>87.9</v>
+      </c>
+      <c r="S25" s="12">
+        <f t="shared" si="1"/>
+        <v>62.6</v>
+      </c>
+      <c r="T25" s="60">
+        <f t="shared" si="2"/>
+        <v>61.8</v>
+      </c>
+      <c r="U25" s="12">
+        <f t="shared" si="3"/>
+        <v>48.8</v>
+      </c>
+      <c r="V25" s="12">
+        <f t="shared" si="4"/>
+        <v>57.1</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="5"/>
+        <v>61.8</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" si="6"/>
+        <v>65.8</v>
+      </c>
+      <c r="Y25" s="60">
+        <f t="shared" si="7"/>
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="5">
+        <v>74.5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>79.2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F26" s="5">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G26" s="5">
+        <v>76.5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>84.7</v>
+      </c>
+      <c r="I26" s="5">
+        <v>76.3</v>
+      </c>
+      <c r="J26" s="5">
+        <v>81.2</v>
+      </c>
+      <c r="K26" s="5">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="L26" s="5">
+        <v>74.3</v>
+      </c>
+      <c r="M26" s="5">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="N26" s="5">
+        <v>82.3</v>
+      </c>
+      <c r="O26" s="5">
+        <v>84.9</v>
+      </c>
+      <c r="P26" s="6">
+        <v>84.6</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" si="0"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="R26" s="12">
+        <f>MAX($C26:P26)</f>
+        <v>84.9</v>
+      </c>
+      <c r="S26" s="12">
+        <f t="shared" si="1"/>
+        <v>78.45</v>
+      </c>
+      <c r="T26" s="60">
+        <f t="shared" si="2"/>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="U26" s="12">
+        <f t="shared" si="3"/>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="V26" s="12">
+        <f t="shared" si="4"/>
+        <v>74.95</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" si="5"/>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="X26" s="12">
+        <f t="shared" si="6"/>
+        <v>82.025000000000006</v>
+      </c>
+      <c r="Y26" s="60">
+        <f t="shared" si="7"/>
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="5">
+        <v>46.7</v>
+      </c>
+      <c r="D27" s="5">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E27" s="5">
+        <v>52.5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>56.4</v>
+      </c>
+      <c r="G27" s="5">
+        <v>39.9</v>
+      </c>
+      <c r="H27" s="5">
+        <v>57.1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="J27" s="5">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="K27" s="5">
+        <v>57.1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>57.2</v>
+      </c>
+      <c r="M27" s="5">
+        <v>65.8</v>
+      </c>
+      <c r="N27" s="5">
+        <v>87.1</v>
+      </c>
+      <c r="O27" s="5">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="P27" s="6">
+        <v>58.8</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="R27" s="12">
+        <f>MAX($C27:P27)</f>
+        <v>87.1</v>
+      </c>
+      <c r="S27" s="12">
+        <f t="shared" si="1"/>
+        <v>58.478571428571435</v>
+      </c>
+      <c r="T27" s="60">
+        <f t="shared" si="2"/>
+        <v>57.150000000000006</v>
+      </c>
+      <c r="U27" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+      <c r="V27" s="12">
+        <f t="shared" si="4"/>
+        <v>53.475000000000001</v>
+      </c>
+      <c r="W27" s="12">
+        <f t="shared" si="5"/>
+        <v>57.150000000000006</v>
+      </c>
+      <c r="X27" s="12">
+        <f t="shared" si="6"/>
+        <v>65.625</v>
+      </c>
+      <c r="Y27" s="60">
+        <f t="shared" si="7"/>
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="5">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D28" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>68.3</v>
+      </c>
+      <c r="F28" s="5">
+        <v>67.3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>62.4</v>
+      </c>
+      <c r="H28" s="5">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I28" s="5">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="J28" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="K28" s="5">
+        <v>74.2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>71.8</v>
+      </c>
+      <c r="M28" s="5">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="N28" s="5">
+        <v>80.7</v>
+      </c>
+      <c r="O28" s="5">
+        <v>84.4</v>
+      </c>
+      <c r="P28" s="6">
+        <v>76.7</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="0"/>
+        <v>62.4</v>
+      </c>
+      <c r="R28" s="12">
+        <f>MAX($C28:P28)</f>
+        <v>84.4</v>
+      </c>
+      <c r="S28" s="12">
+        <f t="shared" si="1"/>
+        <v>73.285714285714292</v>
+      </c>
+      <c r="T28" s="60">
+        <f t="shared" si="2"/>
+        <v>72.75</v>
+      </c>
+      <c r="U28" s="12">
+        <f t="shared" si="3"/>
+        <v>62.4</v>
+      </c>
+      <c r="V28" s="12">
+        <f t="shared" si="4"/>
+        <v>69.125</v>
+      </c>
+      <c r="W28" s="12">
+        <f t="shared" si="5"/>
+        <v>72.75</v>
+      </c>
+      <c r="X28" s="12">
+        <f t="shared" si="6"/>
+        <v>77.3</v>
+      </c>
+      <c r="Y28" s="60">
+        <f t="shared" si="7"/>
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="5">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="E29" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="F29" s="5">
+        <v>24.2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="I29" s="5">
+        <v>25</v>
+      </c>
+      <c r="J29" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="K29" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="L29" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="M29" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N29" s="5">
+        <v>20</v>
+      </c>
+      <c r="O29" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="P29" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R29" s="12">
+        <f>MAX($C29:P29)</f>
+        <v>31.3</v>
+      </c>
+      <c r="S29" s="12">
+        <f t="shared" si="1"/>
+        <v>23.557142857142853</v>
+      </c>
+      <c r="T29" s="60">
+        <f t="shared" si="2"/>
+        <v>23.799999999999997</v>
+      </c>
+      <c r="U29" s="12">
+        <f t="shared" si="3"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="V29" s="12">
+        <f t="shared" si="4"/>
+        <v>21.774999999999999</v>
+      </c>
+      <c r="W29" s="12">
+        <f t="shared" si="5"/>
+        <v>23.799999999999997</v>
+      </c>
+      <c r="X29" s="12">
+        <f t="shared" si="6"/>
+        <v>24.475000000000001</v>
+      </c>
+      <c r="Y29" s="60">
+        <f t="shared" si="7"/>
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="5">
+        <v>19.3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="G30" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H30" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="J30" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="K30" s="5">
+        <v>19</v>
+      </c>
+      <c r="L30" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="M30" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="N30" s="5">
+        <v>16</v>
+      </c>
+      <c r="O30" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="P30" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+      <c r="R30" s="12">
+        <f>MAX($C30:P30)</f>
+        <v>20.7</v>
+      </c>
+      <c r="S30" s="12">
+        <f t="shared" si="1"/>
+        <v>17.114285714285717</v>
+      </c>
+      <c r="T30" s="60">
+        <f t="shared" si="2"/>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="U30" s="12">
+        <f t="shared" si="3"/>
+        <v>11.8</v>
+      </c>
+      <c r="V30" s="12">
+        <f t="shared" si="4"/>
+        <v>15.55</v>
+      </c>
+      <c r="W30" s="12">
+        <f t="shared" si="5"/>
+        <v>17.149999999999999</v>
+      </c>
+      <c r="X30" s="12">
+        <f t="shared" si="6"/>
+        <v>18.774999999999999</v>
+      </c>
+      <c r="Y30" s="60">
+        <f t="shared" si="7"/>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="5">
+        <v>25.4</v>
+      </c>
+      <c r="D31" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="E31" s="5">
+        <v>27.7</v>
+      </c>
+      <c r="F31" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="G31" s="5">
+        <v>23.4</v>
+      </c>
+      <c r="H31" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="I31" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="J31" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>28.4</v>
+      </c>
+      <c r="L31" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="M31" s="5">
+        <v>29.1</v>
+      </c>
+      <c r="N31" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="O31" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="P31" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="R31" s="12">
+        <f>MAX($C31:P31)</f>
+        <v>32.1</v>
+      </c>
+      <c r="S31" s="12">
+        <f t="shared" si="1"/>
+        <v>25.928571428571427</v>
+      </c>
+      <c r="T31" s="60">
+        <f t="shared" si="2"/>
+        <v>25.25</v>
+      </c>
+      <c r="U31" s="12">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="V31" s="12">
+        <f t="shared" si="4"/>
+        <v>23.324999999999999</v>
+      </c>
+      <c r="W31" s="12">
+        <f t="shared" si="5"/>
+        <v>25.25</v>
+      </c>
+      <c r="X31" s="12">
+        <f t="shared" si="6"/>
+        <v>28.224999999999998</v>
+      </c>
+      <c r="Y31" s="60">
+        <f t="shared" si="7"/>
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="5">
+        <v>54.8</v>
+      </c>
+      <c r="D32" s="5">
+        <v>55.6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>55</v>
+      </c>
+      <c r="F32" s="5">
+        <v>58.7</v>
+      </c>
+      <c r="G32" s="5">
+        <v>57.4</v>
+      </c>
+      <c r="H32" s="5">
+        <v>54.7</v>
+      </c>
+      <c r="I32" s="5">
+        <v>53.1</v>
+      </c>
+      <c r="J32" s="5">
+        <v>55.2</v>
+      </c>
+      <c r="K32" s="5">
+        <v>56.7</v>
+      </c>
+      <c r="L32" s="5">
+        <v>56</v>
+      </c>
+      <c r="M32" s="5">
+        <v>60.3</v>
+      </c>
+      <c r="N32" s="5">
+        <v>60.9</v>
+      </c>
+      <c r="O32" s="5">
+        <v>55.5</v>
+      </c>
+      <c r="P32" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="0"/>
+        <v>53.1</v>
+      </c>
+      <c r="R32" s="12">
+        <f>MAX($C32:P32)</f>
+        <v>60.9</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" si="1"/>
+        <v>56.528571428571425</v>
+      </c>
+      <c r="T32" s="60">
+        <f t="shared" si="2"/>
+        <v>55.8</v>
+      </c>
+      <c r="U32" s="12">
+        <f t="shared" si="3"/>
+        <v>53.1</v>
+      </c>
+      <c r="V32" s="12">
+        <f t="shared" si="4"/>
+        <v>55.05</v>
+      </c>
+      <c r="W32" s="12">
+        <f t="shared" si="5"/>
+        <v>55.8</v>
+      </c>
+      <c r="X32" s="12">
+        <f t="shared" si="6"/>
+        <v>57.475000000000001</v>
+      </c>
+      <c r="Y32" s="60">
+        <f t="shared" si="7"/>
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="5">
+        <v>81.5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>73.7</v>
+      </c>
+      <c r="E33" s="5">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F33" s="5">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G33" s="5">
+        <v>82</v>
+      </c>
+      <c r="H33" s="5">
+        <v>83.8</v>
+      </c>
+      <c r="I33" s="5">
+        <v>78.3</v>
+      </c>
+      <c r="J33" s="5">
+        <v>81</v>
+      </c>
+      <c r="K33" s="5">
+        <v>83.9</v>
+      </c>
+      <c r="L33" s="5">
+        <v>81</v>
+      </c>
+      <c r="M33" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="N33" s="5">
+        <v>85.1</v>
+      </c>
+      <c r="O33" s="5">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="P33" s="6">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="0"/>
+        <v>73.7</v>
+      </c>
+      <c r="R33" s="12">
+        <f>MAX($C33:P33)</f>
+        <v>85.1</v>
+      </c>
+      <c r="S33" s="12">
+        <f t="shared" si="1"/>
+        <v>79.828571428571436</v>
+      </c>
+      <c r="T33" s="60">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="U33" s="12">
+        <f t="shared" si="3"/>
+        <v>73.7</v>
+      </c>
+      <c r="V33" s="12">
+        <f t="shared" si="4"/>
+        <v>77.625</v>
+      </c>
+      <c r="W33" s="12">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="X33" s="12">
+        <f t="shared" si="6"/>
+        <v>81.875</v>
+      </c>
+      <c r="Y33" s="60">
+        <f t="shared" si="7"/>
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="5">
+        <v>76.3</v>
+      </c>
+      <c r="D34" s="5">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E34" s="5">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F34" s="5">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="G34" s="5">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="H34" s="5">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I34" s="5">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="J34" s="5">
+        <v>73</v>
+      </c>
+      <c r="K34" s="5">
+        <v>78.8</v>
+      </c>
+      <c r="L34" s="5">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="M34" s="5">
+        <v>69.7</v>
+      </c>
+      <c r="N34" s="5">
+        <v>71.2</v>
+      </c>
+      <c r="O34" s="5">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="P34" s="6">
+        <v>69.7</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="0"/>
+        <v>69.7</v>
+      </c>
+      <c r="R34" s="12">
+        <f>MAX($C34:P34)</f>
+        <v>78.8</v>
+      </c>
+      <c r="S34" s="12">
+        <f t="shared" si="1"/>
+        <v>73.871428571428581</v>
+      </c>
+      <c r="T34" s="60">
+        <f t="shared" si="2"/>
+        <v>73.55</v>
+      </c>
+      <c r="U34" s="12">
+        <f t="shared" si="3"/>
+        <v>69.7</v>
+      </c>
+      <c r="V34" s="12">
+        <f t="shared" si="4"/>
+        <v>71.5</v>
+      </c>
+      <c r="W34" s="12">
+        <f t="shared" si="5"/>
+        <v>73.55</v>
+      </c>
+      <c r="X34" s="12">
+        <f t="shared" si="6"/>
+        <v>76.524999999999991</v>
+      </c>
+      <c r="Y34" s="60">
+        <f t="shared" si="7"/>
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="D35" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E35" s="5">
+        <v>32</v>
+      </c>
+      <c r="F35" s="5">
+        <v>37.9</v>
+      </c>
+      <c r="G35" s="5">
+        <v>40.9</v>
+      </c>
+      <c r="H35" s="5">
+        <v>46.9</v>
+      </c>
+      <c r="I35" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="J35" s="5">
+        <v>36.4</v>
+      </c>
+      <c r="K35" s="5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="L35" s="5">
+        <v>31.1</v>
+      </c>
+      <c r="M35" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="N35" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="O35" s="5">
+        <v>43.6</v>
+      </c>
+      <c r="P35" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" si="0"/>
+        <v>26.7</v>
+      </c>
+      <c r="R35" s="12">
+        <f>MAX($C35:P35)</f>
+        <v>46.9</v>
+      </c>
+      <c r="S35" s="12">
+        <f t="shared" si="1"/>
+        <v>36.728571428571435</v>
+      </c>
+      <c r="T35" s="60">
+        <f t="shared" si="2"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="U35" s="12">
+        <f t="shared" si="3"/>
+        <v>26.7</v>
+      </c>
+      <c r="V35" s="12">
+        <f t="shared" si="4"/>
+        <v>33.875</v>
+      </c>
+      <c r="W35" s="12">
+        <f t="shared" si="5"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="X35" s="12">
+        <f t="shared" si="6"/>
+        <v>39.475000000000001</v>
+      </c>
+      <c r="Y35" s="60">
+        <f t="shared" si="7"/>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="E36" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>13</v>
+      </c>
+      <c r="G36" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I36" s="5">
+        <v>16.2</v>
+      </c>
+      <c r="J36" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="K36" s="5">
+        <v>14.7</v>
+      </c>
+      <c r="L36" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="M36" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N36" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="O36" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="P36" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="R36" s="12">
+        <f>MAX($C36:P36)</f>
+        <v>18.3</v>
+      </c>
+      <c r="S36" s="12">
+        <f t="shared" si="1"/>
+        <v>14.564285714285717</v>
+      </c>
+      <c r="T36" s="60">
+        <f t="shared" si="2"/>
+        <v>14.55</v>
+      </c>
+      <c r="U36" s="12">
+        <f t="shared" si="3"/>
+        <v>11.5</v>
+      </c>
+      <c r="V36" s="12">
+        <f t="shared" si="4"/>
+        <v>13.1</v>
+      </c>
+      <c r="W36" s="12">
+        <f t="shared" si="5"/>
+        <v>14.55</v>
+      </c>
+      <c r="X36" s="12">
+        <f t="shared" si="6"/>
+        <v>15.875</v>
+      </c>
+      <c r="Y36" s="60">
+        <f t="shared" si="7"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="D37" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="E37" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F37" s="5">
+        <v>28.7</v>
+      </c>
+      <c r="G37" s="5">
+        <v>29.3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>24.4</v>
+      </c>
+      <c r="I37" s="5">
+        <v>29.5</v>
+      </c>
+      <c r="J37" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="K37" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="L37" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="M37" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="N37" s="5">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="O37" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="P37" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+      <c r="R37" s="12">
+        <f>MAX($C37:P37)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" si="1"/>
+        <v>28.957142857142859</v>
+      </c>
+      <c r="T37" s="60">
+        <f t="shared" si="2"/>
+        <v>29.4</v>
+      </c>
+      <c r="U37" s="12">
+        <f t="shared" si="3"/>
+        <v>24.4</v>
+      </c>
+      <c r="V37" s="12">
+        <f t="shared" si="4"/>
+        <v>25.824999999999999</v>
+      </c>
+      <c r="W37" s="12">
+        <f t="shared" si="5"/>
+        <v>29.4</v>
+      </c>
+      <c r="X37" s="12">
+        <f t="shared" si="6"/>
+        <v>30.824999999999999</v>
+      </c>
+      <c r="Y37" s="60">
+        <f t="shared" si="7"/>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="5">
+        <v>20.2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>19</v>
+      </c>
+      <c r="E38" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="F38" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="G38" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H38" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I38" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="J38" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="K38" s="5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L38" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="M38" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="N38" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="O38" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="P38" s="6">
+        <v>24.8</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="R38" s="12">
+        <f>MAX($C38:P38)</f>
+        <v>24.8</v>
+      </c>
+      <c r="S38" s="12">
+        <f t="shared" si="1"/>
+        <v>20.37142857142857</v>
+      </c>
+      <c r="T38" s="60">
+        <f t="shared" si="2"/>
+        <v>19.850000000000001</v>
+      </c>
+      <c r="U38" s="12">
+        <f t="shared" si="3"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="V38" s="12">
+        <f t="shared" si="4"/>
+        <v>18.850000000000001</v>
+      </c>
+      <c r="W38" s="12">
+        <f t="shared" si="5"/>
+        <v>19.850000000000001</v>
+      </c>
+      <c r="X38" s="12">
+        <f t="shared" si="6"/>
+        <v>21.95</v>
+      </c>
+      <c r="Y38" s="60">
+        <f t="shared" si="7"/>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="12">
+        <f>MAX($C39:P39)</f>
+        <v>1.2</v>
+      </c>
+      <c r="S39" s="12">
+        <f t="shared" si="1"/>
+        <v>0.43571428571428583</v>
+      </c>
+      <c r="T39" s="60">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="U39" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="12">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="W39" s="12">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="X39" s="12">
+        <f t="shared" si="6"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="Y39" s="60">
+        <f t="shared" si="7"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R40" s="12">
+        <f>MAX($C40:P40)</f>
+        <v>0.9</v>
+      </c>
+      <c r="S40" s="12">
+        <f t="shared" si="1"/>
+        <v>0.31428571428571422</v>
+      </c>
+      <c r="T40" s="60">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="U40" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="V40" s="12">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="W40" s="12">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="X40" s="12">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="Y40" s="60">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O41" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="12">
+        <f>MAX($C41:P41)</f>
+        <v>1.7</v>
+      </c>
+      <c r="S41" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0285714285714285</v>
+      </c>
+      <c r="T41" s="60">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="U41" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="12">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="W41" s="12">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="X41" s="12">
+        <f t="shared" si="6"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="Y41" s="60">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="Q42" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="R42" s="12">
+        <f>MAX($C42:P42)</f>
+        <v>0.6</v>
+      </c>
+      <c r="S42" s="12">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="T42" s="60">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="U42" s="12">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="V42" s="12">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="W42" s="12">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="X42" s="12">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y42" s="60">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="5">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D43" s="5">
+        <v>56.7</v>
+      </c>
+      <c r="E43" s="5">
+        <v>73.2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>59.5</v>
+      </c>
+      <c r="G43" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="H43" s="5">
+        <v>48.4</v>
+      </c>
+      <c r="I43" s="5">
+        <v>57.3</v>
+      </c>
+      <c r="J43" s="5">
+        <v>52.9</v>
+      </c>
+      <c r="K43" s="5">
+        <v>61.8</v>
+      </c>
+      <c r="L43" s="5">
+        <v>53.4</v>
+      </c>
+      <c r="M43" s="5">
+        <v>53.8</v>
+      </c>
+      <c r="N43" s="5">
+        <v>56.6</v>
+      </c>
+      <c r="O43" s="5">
+        <v>50.7</v>
+      </c>
+      <c r="P43" s="6">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" si="0"/>
+        <v>48.4</v>
+      </c>
+      <c r="R43" s="12">
+        <f>MAX($C43:P43)</f>
+        <v>73.2</v>
+      </c>
+      <c r="S43" s="12">
+        <f t="shared" si="1"/>
+        <v>57.942857142857136</v>
+      </c>
+      <c r="T43" s="60">
+        <f t="shared" si="2"/>
+        <v>56.650000000000006</v>
+      </c>
+      <c r="U43" s="12">
+        <f t="shared" si="3"/>
+        <v>48.4</v>
+      </c>
+      <c r="V43" s="12">
+        <f t="shared" si="4"/>
+        <v>53.5</v>
+      </c>
+      <c r="W43" s="12">
+        <f t="shared" si="5"/>
+        <v>56.650000000000006</v>
+      </c>
+      <c r="X43" s="12">
+        <f t="shared" si="6"/>
+        <v>61.224999999999994</v>
+      </c>
+      <c r="Y43" s="60">
+        <f t="shared" si="7"/>
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D44" s="5">
+        <v>22.3</v>
+      </c>
+      <c r="E44" s="5">
+        <v>46.7</v>
+      </c>
+      <c r="F44" s="5">
+        <v>26.1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="I44" s="5">
+        <v>26</v>
+      </c>
+      <c r="J44" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="K44" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="L44" s="5">
+        <v>23.1</v>
+      </c>
+      <c r="M44" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="N44" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="O44" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="P44" s="6">
+        <v>23.7</v>
+      </c>
+      <c r="Q44" s="12">
+        <f t="shared" si="0"/>
+        <v>21.4</v>
+      </c>
+      <c r="R44" s="12">
+        <f>MAX($C44:P44)</f>
+        <v>46.7</v>
+      </c>
+      <c r="S44" s="12">
+        <f t="shared" si="1"/>
+        <v>28.085714285714289</v>
+      </c>
+      <c r="T44" s="60">
+        <f t="shared" si="2"/>
+        <v>26.05</v>
+      </c>
+      <c r="U44" s="12">
+        <f t="shared" si="3"/>
+        <v>21.4</v>
+      </c>
+      <c r="V44" s="12">
+        <f t="shared" si="4"/>
+        <v>23.25</v>
+      </c>
+      <c r="W44" s="12">
+        <f t="shared" si="5"/>
+        <v>26.05</v>
+      </c>
+      <c r="X44" s="12">
+        <f t="shared" si="6"/>
+        <v>30.575000000000003</v>
+      </c>
+      <c r="Y44" s="60">
+        <f t="shared" si="7"/>
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="H45" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="J45" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="K45" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L45" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="M45" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="N45" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="O45" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="P45" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="R45" s="12">
+        <f>MAX($C45:P45)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S45" s="12">
+        <f t="shared" si="1"/>
+        <v>3.785714285714286</v>
+      </c>
+      <c r="T45" s="60">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="U45" s="12">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="V45" s="12">
+        <f t="shared" si="4"/>
+        <v>3.3249999999999997</v>
+      </c>
+      <c r="W45" s="12">
+        <f t="shared" si="5"/>
+        <v>3.7</v>
+      </c>
+      <c r="X45" s="12">
+        <f t="shared" si="6"/>
+        <v>4.2</v>
+      </c>
+      <c r="Y45" s="60">
+        <f t="shared" si="7"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="5">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="E46" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="F46" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="G46" s="5">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I46" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="J46" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K46" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="L46" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="N46" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="O46" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="P46" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="R46" s="12">
+        <f>MAX($C46:P46)</f>
+        <v>11.2</v>
+      </c>
+      <c r="S46" s="12">
+        <f t="shared" si="1"/>
+        <v>9.7428571428571438</v>
+      </c>
+      <c r="T46" s="60">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U46" s="12">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="V46" s="12">
+        <f t="shared" si="4"/>
+        <v>9.7249999999999996</v>
+      </c>
+      <c r="W46" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="X46" s="12">
+        <f t="shared" si="6"/>
+        <v>10.35</v>
+      </c>
+      <c r="Y46" s="60">
+        <f t="shared" si="7"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="I47" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="K47" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="L47" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N47" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="O47" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="P47" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="R47" s="12">
+        <f>MAX($C47:P47)</f>
+        <v>3.6</v>
+      </c>
+      <c r="S47" s="12">
+        <f t="shared" si="1"/>
+        <v>2.342857142857143</v>
+      </c>
+      <c r="T47" s="60">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="U47" s="12">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="V47" s="12">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="W47" s="12">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="X47" s="12">
+        <f t="shared" si="6"/>
+        <v>2.6750000000000003</v>
+      </c>
+      <c r="Y47" s="60">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="D48" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="F48" s="5">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="H48" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="I48" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="J48" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="K48" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="L48" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="M48" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="N48" s="5">
+        <v>4</v>
+      </c>
+      <c r="O48" s="5">
+        <v>7</v>
+      </c>
+      <c r="P48" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R48" s="12">
+        <f>MAX($C48:P48)</f>
+        <v>7.7</v>
+      </c>
+      <c r="S48" s="12">
+        <f t="shared" si="1"/>
+        <v>6.6071428571428585</v>
+      </c>
+      <c r="T48" s="60">
+        <f t="shared" si="2"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="U48" s="12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V48" s="12">
+        <f t="shared" si="4"/>
+        <v>6.125</v>
+      </c>
+      <c r="W48" s="12">
+        <f t="shared" si="5"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="X48" s="12">
+        <f t="shared" si="6"/>
+        <v>7.4</v>
+      </c>
+      <c r="Y48" s="60">
+        <f t="shared" si="7"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="K49" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N49" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="O49" s="5">
+        <v>2</v>
+      </c>
+      <c r="P49" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q49" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="R49" s="12">
+        <f>MAX($C49:P49)</f>
+        <v>2.5</v>
+      </c>
+      <c r="S49" s="12">
+        <f t="shared" si="1"/>
+        <v>1.9642857142857149</v>
+      </c>
+      <c r="T49" s="60">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="U49" s="12">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="V49" s="12">
+        <f t="shared" si="4"/>
+        <v>1.675</v>
+      </c>
+      <c r="W49" s="12">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="X49" s="12">
+        <f t="shared" si="6"/>
+        <v>2.375</v>
+      </c>
+      <c r="Y49" s="60">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F50" s="5">
+        <v>5</v>
+      </c>
+      <c r="G50" s="5">
+        <v>5</v>
+      </c>
+      <c r="H50" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I50" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="J50" s="5">
+        <v>5</v>
+      </c>
+      <c r="K50" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L50" s="5">
+        <v>6</v>
+      </c>
+      <c r="M50" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="N50" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="O50" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="P50" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="R50" s="12">
+        <f>MAX($C50:P50)</f>
+        <v>6.1</v>
+      </c>
+      <c r="S50" s="12">
+        <f t="shared" si="1"/>
+        <v>4.9357142857142859</v>
+      </c>
+      <c r="T50" s="60">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U50" s="12">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="V50" s="12">
+        <f t="shared" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="W50" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X50" s="12">
+        <f t="shared" si="6"/>
+        <v>5.55</v>
+      </c>
+      <c r="Y50" s="60">
+        <f t="shared" si="7"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="G51" s="5">
+        <v>10</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="I51" s="5">
+        <v>8</v>
+      </c>
+      <c r="J51" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="K51" s="5">
+        <v>12</v>
+      </c>
+      <c r="L51" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M51" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O51" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R51" s="12">
+        <f>MAX($C51:P51)</f>
+        <v>12</v>
+      </c>
+      <c r="S51" s="12">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999991</v>
+      </c>
+      <c r="T51" s="60">
+        <f t="shared" si="2"/>
+        <v>5.75</v>
+      </c>
+      <c r="U51" s="12">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="V51" s="12">
+        <f t="shared" si="4"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="W51" s="12">
+        <f t="shared" si="5"/>
+        <v>5.75</v>
+      </c>
+      <c r="X51" s="12">
+        <f t="shared" si="6"/>
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="Y51" s="60">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G52" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I52" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K52" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="L52" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="M52" s="5">
+        <v>2</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O52" s="5">
+        <v>3</v>
+      </c>
+      <c r="P52" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="R52" s="12">
+        <f>MAX($C52:P52)</f>
+        <v>6.9</v>
+      </c>
+      <c r="S52" s="12">
+        <f t="shared" si="1"/>
+        <v>2.9785714285714286</v>
+      </c>
+      <c r="T52" s="60">
+        <f t="shared" si="2"/>
+        <v>2.15</v>
+      </c>
+      <c r="U52" s="12">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="V52" s="12">
+        <f t="shared" si="4"/>
+        <v>1.575</v>
+      </c>
+      <c r="W52" s="12">
+        <f t="shared" si="5"/>
+        <v>2.15</v>
+      </c>
+      <c r="X52" s="12">
+        <f t="shared" si="6"/>
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="Y52" s="60">
+        <f t="shared" si="7"/>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="R53" s="12">
+        <f>MAX($C53:P53)</f>
+        <v>1.7</v>
+      </c>
+      <c r="S53" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="T53" s="60">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="U53" s="12">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="V53" s="12">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="W53" s="12">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="X53" s="12">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y53" s="60">
+        <f t="shared" si="7"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="C54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="Q54" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="R54" s="12">
+        <f>MAX($C54:P54)</f>
+        <v>0.8</v>
+      </c>
+      <c r="S54" s="12">
+        <f t="shared" si="1"/>
+        <v>0.52857142857142858</v>
+      </c>
+      <c r="T54" s="60">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U54" s="12">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="V54" s="12">
+        <f t="shared" si="4"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="W54" s="12">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X54" s="12">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y54" s="60">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="126" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="126" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>